--- a/backend/data/atlas/processed/gov_spending/gov_congress.xlsx
+++ b/backend/data/atlas/processed/gov_spending/gov_congress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="462">
   <si>
     <t>cd_118</t>
   </si>
@@ -106,6 +106,9 @@
     <t>Revenue_per_capita</t>
   </si>
   <si>
+    <t>Year</t>
+  </si>
+  <si>
     <t>AK-00</t>
   </si>
   <si>
@@ -1394,6 +1397,9 @@
   </si>
   <si>
     <t>WY-00</t>
+  </si>
+  <si>
+    <t>Fiscal Year 2023</t>
   </si>
 </sst>
 </file>
@@ -1751,13 +1757,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD431"/>
+  <dimension ref="A1:AE431"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1848,10 +1854,13 @@
       <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:30">
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>2054319680</v>
@@ -1940,10 +1949,13 @@
       <c r="AD2">
         <v>2678.014450937988</v>
       </c>
-    </row>
-    <row r="3" spans="1:30">
+      <c r="AE2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2032,10 +2044,13 @@
       <c r="AD3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:30">
+      <c r="AE3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>76088560</v>
@@ -2124,10 +2139,13 @@
       <c r="AD4">
         <v>96.98769086544607</v>
       </c>
-    </row>
-    <row r="5" spans="1:30">
+      <c r="AE4" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>117985785</v>
@@ -2216,10 +2234,13 @@
       <c r="AD5">
         <v>253.6792284317423</v>
       </c>
-    </row>
-    <row r="6" spans="1:30">
+      <c r="AE5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>179322714</v>
@@ -2308,10 +2329,13 @@
       <c r="AD6">
         <v>210.1192607587572</v>
       </c>
-    </row>
-    <row r="7" spans="1:30">
+      <c r="AE6" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>449504866</v>
@@ -2400,10 +2424,13 @@
       <c r="AD7">
         <v>616.8556304576167</v>
       </c>
-    </row>
-    <row r="8" spans="1:30">
+      <c r="AE7" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>3425857369</v>
@@ -2492,10 +2519,13 @@
       <c r="AD8">
         <v>1157.070141121885</v>
       </c>
-    </row>
-    <row r="9" spans="1:30">
+      <c r="AE8" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>3226982551</v>
@@ -2584,10 +2614,13 @@
       <c r="AD9">
         <v>722.6384210706643</v>
       </c>
-    </row>
-    <row r="10" spans="1:30">
+      <c r="AE9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10">
         <v>121309204</v>
@@ -2676,10 +2709,13 @@
       <c r="AD10">
         <v>146.3323380455674</v>
       </c>
-    </row>
-    <row r="11" spans="1:30">
+      <c r="AE10" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <v>37551478</v>
@@ -2768,10 +2804,13 @@
       <c r="AD11">
         <v>64.31228584057534</v>
       </c>
-    </row>
-    <row r="12" spans="1:30">
+      <c r="AE11" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12">
         <v>91885037</v>
@@ -2860,10 +2899,13 @@
       <c r="AD12">
         <v>173.4701417999072</v>
       </c>
-    </row>
-    <row r="13" spans="1:30">
+      <c r="AE12" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13">
         <v>174264587</v>
@@ -2952,10 +2994,13 @@
       <c r="AD13">
         <v>218.5137923148964</v>
       </c>
-    </row>
-    <row r="14" spans="1:30">
+      <c r="AE13" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14">
         <v>3374917375</v>
@@ -3044,10 +3089,13 @@
       <c r="AD14">
         <v>729.2875058759338</v>
       </c>
-    </row>
-    <row r="15" spans="1:30">
+      <c r="AE14" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15">
         <v>5116206143</v>
@@ -3136,10 +3184,13 @@
       <c r="AD15">
         <v>860.5772318633386</v>
       </c>
-    </row>
-    <row r="16" spans="1:30">
+      <c r="AE15" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16">
         <v>3374917375</v>
@@ -3228,10 +3279,13 @@
       <c r="AD16">
         <v>729.2875058759338</v>
       </c>
-    </row>
-    <row r="17" spans="1:30">
+      <c r="AE16" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17">
         <v>3374917375</v>
@@ -3320,10 +3374,13 @@
       <c r="AD17">
         <v>729.2875058759338</v>
       </c>
-    </row>
-    <row r="18" spans="1:30">
+      <c r="AE17" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18">
         <v>4054263375</v>
@@ -3412,10 +3469,13 @@
       <c r="AD18">
         <v>803.0732782468064</v>
       </c>
-    </row>
-    <row r="19" spans="1:30">
+      <c r="AE18" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19">
         <v>2946570120</v>
@@ -3504,10 +3564,13 @@
       <c r="AD19">
         <v>1391.633276155089</v>
       </c>
-    </row>
-    <row r="20" spans="1:30">
+      <c r="AE19" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20">
         <v>6620431467</v>
@@ -3596,10 +3659,13 @@
       <c r="AD20">
         <v>917.177651957516</v>
       </c>
-    </row>
-    <row r="21" spans="1:30">
+      <c r="AE20" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B21">
         <v>3374917375</v>
@@ -3688,10 +3754,13 @@
       <c r="AD21">
         <v>729.2875058759338</v>
       </c>
-    </row>
-    <row r="22" spans="1:30">
+      <c r="AE21" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B22">
         <v>3898922824</v>
@@ -3780,10 +3849,13 @@
       <c r="AD22">
         <v>771.3441102878739</v>
       </c>
-    </row>
-    <row r="23" spans="1:30">
+      <c r="AE22" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23">
         <v>2727722191</v>
@@ -3872,10 +3944,13 @@
       <c r="AD23">
         <v>2814.625557214186</v>
       </c>
-    </row>
-    <row r="24" spans="1:30">
+      <c r="AE23" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B24">
         <v>3031745632</v>
@@ -3964,10 +4039,13 @@
       <c r="AD24">
         <v>3198.999151606376</v>
       </c>
-    </row>
-    <row r="25" spans="1:30">
+      <c r="AE24" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B25">
         <v>8894437285</v>
@@ -4056,10 +4134,13 @@
       <c r="AD25">
         <v>2751.088234237293</v>
       </c>
-    </row>
-    <row r="26" spans="1:30">
+      <c r="AE25" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B26">
         <v>3471263374</v>
@@ -4148,10 +4229,13 @@
       <c r="AD26">
         <v>2593.635278017102</v>
       </c>
-    </row>
-    <row r="27" spans="1:30">
+      <c r="AE26" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B27">
         <v>5529600278</v>
@@ -4240,10 +4324,13 @@
       <c r="AD27">
         <v>2305.566892206611</v>
       </c>
-    </row>
-    <row r="28" spans="1:30">
+      <c r="AE27" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B28">
         <v>5719896000</v>
@@ -4332,10 +4419,13 @@
       <c r="AD28">
         <v>2802.06883585713</v>
       </c>
-    </row>
-    <row r="29" spans="1:30">
+      <c r="AE28" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B29">
         <v>7371835404</v>
@@ -4424,10 +4514,13 @@
       <c r="AD29">
         <v>2624.593700677756</v>
       </c>
-    </row>
-    <row r="30" spans="1:30">
+      <c r="AE29" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B30">
         <v>4947852024</v>
@@ -4516,10 +4609,13 @@
       <c r="AD30">
         <v>3709.709901155786</v>
       </c>
-    </row>
-    <row r="31" spans="1:30">
+      <c r="AE30" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B31">
         <v>7319998225</v>
@@ -4608,10 +4704,13 @@
       <c r="AD31">
         <v>3418.323337472588</v>
       </c>
-    </row>
-    <row r="32" spans="1:30">
+      <c r="AE31" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B32">
         <v>9016262000</v>
@@ -4700,10 +4799,13 @@
       <c r="AD32">
         <v>3215.044072552416</v>
       </c>
-    </row>
-    <row r="33" spans="1:30">
+      <c r="AE32" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B33">
         <v>5108563000</v>
@@ -4792,10 +4894,13 @@
       <c r="AD33">
         <v>2433.358833665908</v>
       </c>
-    </row>
-    <row r="34" spans="1:30">
+      <c r="AE33" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B34">
         <v>7764439403</v>
@@ -4884,10 +4989,13 @@
       <c r="AD34">
         <v>2469.181881695389</v>
       </c>
-    </row>
-    <row r="35" spans="1:30">
+      <c r="AE34" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B35">
         <v>5108563000</v>
@@ -4976,10 +5084,13 @@
       <c r="AD35">
         <v>2433.358833665908</v>
       </c>
-    </row>
-    <row r="36" spans="1:30">
+      <c r="AE35" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B36">
         <v>2236628000</v>
@@ -5068,10 +5179,13 @@
       <c r="AD36">
         <v>3581.608305251481</v>
       </c>
-    </row>
-    <row r="37" spans="1:30">
+      <c r="AE36" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B37">
         <v>15584357000</v>
@@ -5160,10 +5274,13 @@
       <c r="AD37">
         <v>4251.659380917434</v>
       </c>
-    </row>
-    <row r="38" spans="1:30">
+      <c r="AE37" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B38">
         <v>18456292000</v>
@@ -5252,10 +5369,13 @@
       <c r="AD38">
         <v>3547.859188831055</v>
       </c>
-    </row>
-    <row r="39" spans="1:30">
+      <c r="AE38" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B39">
         <v>16372536928</v>
@@ -5344,10 +5464,13 @@
       <c r="AD39">
         <v>4191.101538673827</v>
       </c>
-    </row>
-    <row r="40" spans="1:30">
+      <c r="AE39" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B40">
         <v>18049635752</v>
@@ -5436,10 +5559,13 @@
       <c r="AD40">
         <v>4105.882320080912</v>
       </c>
-    </row>
-    <row r="41" spans="1:30">
+      <c r="AE40" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B41">
         <v>7095625021</v>
@@ -5528,10 +5654,13 @@
       <c r="AD41">
         <v>2452.621479701781</v>
       </c>
-    </row>
-    <row r="42" spans="1:30">
+      <c r="AE41" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B42">
         <v>3781358000</v>
@@ -5620,10 +5749,13 @@
       <c r="AD42">
         <v>2330.898177648713</v>
       </c>
-    </row>
-    <row r="43" spans="1:30">
+      <c r="AE42" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B43">
         <v>4446131021</v>
@@ -5712,10 +5844,13 @@
       <c r="AD43">
         <v>2577.406820475499</v>
       </c>
-    </row>
-    <row r="44" spans="1:30">
+      <c r="AE43" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B44">
         <v>69623125000</v>
@@ -5804,10 +5939,13 @@
       <c r="AD44">
         <v>3339.161666265291</v>
       </c>
-    </row>
-    <row r="45" spans="1:30">
+      <c r="AE44" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31">
       <c r="A45" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B45">
         <v>4927848000</v>
@@ -5896,10 +6034,13 @@
       <c r="AD45">
         <v>3108.8997607499</v>
       </c>
-    </row>
-    <row r="46" spans="1:30">
+      <c r="AE45" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31">
       <c r="A46" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B46">
         <v>14504063000</v>
@@ -5988,10 +6129,13 @@
       <c r="AD46">
         <v>2736.003488195955</v>
       </c>
-    </row>
-    <row r="47" spans="1:30">
+      <c r="AE46" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31">
       <c r="A47" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B47">
         <v>64114968000</v>
@@ -6080,10 +6224,13 @@
       <c r="AD47">
         <v>3509.909342381136</v>
       </c>
-    </row>
-    <row r="48" spans="1:30">
+      <c r="AE47" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31">
       <c r="A48" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B48">
         <v>62363966000</v>
@@ -6172,10 +6319,13 @@
       <c r="AD48">
         <v>3528.231057948429</v>
       </c>
-    </row>
-    <row r="49" spans="1:30">
+      <c r="AE48" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B49">
         <v>66740689000</v>
@@ -6264,10 +6414,13 @@
       <c r="AD49">
         <v>3389.3899031987</v>
       </c>
-    </row>
-    <row r="50" spans="1:30">
+      <c r="AE49" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31">
       <c r="A50" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B50">
         <v>62363966000</v>
@@ -6356,10 +6509,13 @@
       <c r="AD50">
         <v>3528.231057948429</v>
       </c>
-    </row>
-    <row r="51" spans="1:30">
+      <c r="AE50" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31">
       <c r="A51" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B51">
         <v>62363966000</v>
@@ -6448,10 +6604,13 @@
       <c r="AD51">
         <v>3528.231057948429</v>
       </c>
-    </row>
-    <row r="52" spans="1:30">
+      <c r="AE51" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31">
       <c r="A52" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B52">
         <v>62363966000</v>
@@ -6540,10 +6699,13 @@
       <c r="AD52">
         <v>3528.231057948429</v>
       </c>
-    </row>
-    <row r="53" spans="1:30">
+      <c r="AE52" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31">
       <c r="A53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B53">
         <v>64114968000</v>
@@ -6632,10 +6794,13 @@
       <c r="AD53">
         <v>3509.909342381136</v>
       </c>
-    </row>
-    <row r="54" spans="1:30">
+      <c r="AE53" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31">
       <c r="A54" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B54">
         <v>4376723000</v>
@@ -6724,10 +6889,13 @@
       <c r="AD54">
         <v>2752.095420830541</v>
       </c>
-    </row>
-    <row r="55" spans="1:30">
+      <c r="AE54" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31">
       <c r="A55" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B55">
         <v>62363966000</v>
@@ -6816,10 +6984,13 @@
       <c r="AD55">
         <v>3528.231057948429</v>
       </c>
-    </row>
-    <row r="56" spans="1:30">
+      <c r="AE55" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31">
       <c r="A56" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B56">
         <v>76141490000</v>
@@ -6908,10 +7079,13 @@
       <c r="AD56">
         <v>3277.638499998734</v>
       </c>
-    </row>
-    <row r="57" spans="1:30">
+      <c r="AE56" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31">
       <c r="A57" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B57">
         <v>62363966000</v>
@@ -7000,10 +7174,13 @@
       <c r="AD57">
         <v>3528.231057948429</v>
       </c>
-    </row>
-    <row r="58" spans="1:30">
+      <c r="AE57" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31">
       <c r="A58" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B58">
         <v>62363966000</v>
@@ -7092,10 +7269,13 @@
       <c r="AD58">
         <v>3528.231057948429</v>
       </c>
-    </row>
-    <row r="59" spans="1:30">
+      <c r="AE58" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31">
       <c r="A59" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B59">
         <v>69596016000</v>
@@ -7184,10 +7364,13 @@
       <c r="AD59">
         <v>3134.11932304327</v>
       </c>
-    </row>
-    <row r="60" spans="1:30">
+      <c r="AE59" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31">
       <c r="A60" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B60">
         <v>9400801000</v>
@@ -7276,10 +7459,13 @@
       <c r="AD60">
         <v>2714.037475337827</v>
       </c>
-    </row>
-    <row r="61" spans="1:30">
+      <c r="AE60" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31">
       <c r="A61" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B61">
         <v>21009574000</v>
@@ -7368,10 +7554,13 @@
       <c r="AD61">
         <v>2389.793366173449</v>
       </c>
-    </row>
-    <row r="62" spans="1:30">
+      <c r="AE61" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31">
       <c r="A62" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B62">
         <v>9400801000</v>
@@ -7460,10 +7649,13 @@
       <c r="AD62">
         <v>2714.037475337827</v>
       </c>
-    </row>
-    <row r="63" spans="1:30">
+      <c r="AE62" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31">
       <c r="A63" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B63">
         <v>62363966000</v>
@@ -7552,10 +7744,13 @@
       <c r="AD63">
         <v>3528.231057948429</v>
       </c>
-    </row>
-    <row r="64" spans="1:30">
+      <c r="AE63" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31">
       <c r="A64" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B64">
         <v>62363966000</v>
@@ -7644,10 +7839,13 @@
       <c r="AD64">
         <v>3528.231057948429</v>
       </c>
-    </row>
-    <row r="65" spans="1:30">
+      <c r="AE64" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31">
       <c r="A65" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B65">
         <v>62363966000</v>
@@ -7736,10 +7934,13 @@
       <c r="AD65">
         <v>3528.231057948429</v>
       </c>
-    </row>
-    <row r="66" spans="1:30">
+      <c r="AE65" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31">
       <c r="A66" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B66">
         <v>69596016000</v>
@@ -7828,10 +8029,13 @@
       <c r="AD66">
         <v>3134.11932304327</v>
       </c>
-    </row>
-    <row r="67" spans="1:30">
+      <c r="AE66" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31">
       <c r="A67" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B67">
         <v>7232050000</v>
@@ -7920,10 +8124,13 @@
       <c r="AD67">
         <v>1895.751744834214</v>
       </c>
-    </row>
-    <row r="68" spans="1:30">
+      <c r="AE67" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31">
       <c r="A68" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B68">
         <v>7232050000</v>
@@ -8012,10 +8219,13 @@
       <c r="AD68">
         <v>1895.751744834214</v>
       </c>
-    </row>
-    <row r="69" spans="1:30">
+      <c r="AE68" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31">
       <c r="A69" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B69">
         <v>18045352000</v>
@@ -8104,10 +8314,13 @@
       <c r="AD69">
         <v>2292.020797605378</v>
       </c>
-    </row>
-    <row r="70" spans="1:30">
+      <c r="AE69" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31">
       <c r="A70" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B70">
         <v>15876601000</v>
@@ -8196,10 +8409,13 @@
       <c r="AD70">
         <v>1939.947397424515</v>
       </c>
-    </row>
-    <row r="71" spans="1:30">
+      <c r="AE70" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="71" spans="1:31">
       <c r="A71" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B71">
         <v>8644551000</v>
@@ -8288,10 +8504,13 @@
       <c r="AD71">
         <v>1982.647064619153</v>
       </c>
-    </row>
-    <row r="72" spans="1:30">
+      <c r="AE71" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31">
       <c r="A72" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B72">
         <v>8644551000</v>
@@ -8380,10 +8599,13 @@
       <c r="AD72">
         <v>1982.647064619153</v>
       </c>
-    </row>
-    <row r="73" spans="1:30">
+      <c r="AE72" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31">
       <c r="A73" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B73">
         <v>8644551000</v>
@@ -8472,10 +8694,13 @@
       <c r="AD73">
         <v>1982.647064619153</v>
       </c>
-    </row>
-    <row r="74" spans="1:30">
+      <c r="AE73" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31">
       <c r="A74" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B74">
         <v>15016457505</v>
@@ -8564,10 +8789,13 @@
       <c r="AD74">
         <v>3227.595454922401</v>
       </c>
-    </row>
-    <row r="75" spans="1:30">
+      <c r="AE74" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31">
       <c r="A75" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B75">
         <v>1096110342</v>
@@ -8656,10 +8884,13 @@
       <c r="AD75">
         <v>1523.982711527291</v>
       </c>
-    </row>
-    <row r="76" spans="1:30">
+      <c r="AE75" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="76" spans="1:31">
       <c r="A76" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B76">
         <v>1006898432</v>
@@ -8748,10 +8979,13 @@
       <c r="AD76">
         <v>2097.756783675896</v>
       </c>
-    </row>
-    <row r="77" spans="1:30">
+      <c r="AE76" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="77" spans="1:31">
       <c r="A77" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B77">
         <v>2124321016</v>
@@ -8840,10 +9074,13 @@
       <c r="AD77">
         <v>1137.465607536593</v>
       </c>
-    </row>
-    <row r="78" spans="1:30">
+      <c r="AE77" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="78" spans="1:31">
       <c r="A78" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B78">
         <v>566438900</v>
@@ -8932,10 +9169,13 @@
       <c r="AD78">
         <v>675.4062187671994</v>
       </c>
-    </row>
-    <row r="79" spans="1:30">
+      <c r="AE78" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="79" spans="1:31">
       <c r="A79" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B79">
         <v>15728700273</v>
@@ -9024,10 +9264,13 @@
       <c r="AD79">
         <v>2660.358837870239</v>
       </c>
-    </row>
-    <row r="80" spans="1:30">
+      <c r="AE79" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31">
       <c r="A80" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B80">
         <v>1939504451</v>
@@ -9116,10 +9359,13 @@
       <c r="AD80">
         <v>1141.990170437208</v>
       </c>
-    </row>
-    <row r="81" spans="1:30">
+      <c r="AE80" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="81" spans="1:31">
       <c r="A81" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B81">
         <v>813571127</v>
@@ -9208,10 +9454,13 @@
       <c r="AD81">
         <v>1363.306580525064</v>
       </c>
-    </row>
-    <row r="82" spans="1:30">
+      <c r="AE81" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="82" spans="1:31">
       <c r="A82" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B82">
         <v>19832339000</v>
@@ -9300,10 +9549,13 @@
       <c r="AD82">
         <v>27932.79056074577</v>
       </c>
-    </row>
-    <row r="83" spans="1:30">
+      <c r="AE82" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="83" spans="1:31">
       <c r="A83" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B83">
         <v>1570674635</v>
@@ -9392,10 +9644,13 @@
       <c r="AD83">
         <v>665.9826527818885</v>
       </c>
-    </row>
-    <row r="84" spans="1:30">
+      <c r="AE83" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="84" spans="1:31">
       <c r="A84" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B84">
         <v>1506134095</v>
@@ -9484,10 +9739,13 @@
       <c r="AD84">
         <v>1953.115039316917</v>
       </c>
-    </row>
-    <row r="85" spans="1:30">
+      <c r="AE84" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="85" spans="1:31">
       <c r="A85" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B85">
         <v>1707454347</v>
@@ -9576,10 +9834,13 @@
       <c r="AD85">
         <v>2061.038988973245</v>
       </c>
-    </row>
-    <row r="86" spans="1:30">
+      <c r="AE85" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="86" spans="1:31">
       <c r="A86" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B86">
         <v>1435411518</v>
@@ -9668,10 +9929,13 @@
       <c r="AD86">
         <v>1633.204709666987</v>
       </c>
-    </row>
-    <row r="87" spans="1:30">
+      <c r="AE86" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="87" spans="1:31">
       <c r="A87" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B87">
         <v>604900439</v>
@@ -9760,10 +10024,13 @@
       <c r="AD87">
         <v>1772.261081317542</v>
       </c>
-    </row>
-    <row r="88" spans="1:30">
+      <c r="AE87" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="88" spans="1:31">
       <c r="A88" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B88">
         <v>959417095</v>
@@ -9852,10 +10119,13 @@
       <c r="AD88">
         <v>3159.760502803308</v>
       </c>
-    </row>
-    <row r="89" spans="1:30">
+      <c r="AE88" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="89" spans="1:31">
       <c r="A89" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B89">
         <v>3192373462</v>
@@ -9944,10 +10214,13 @@
       <c r="AD89">
         <v>1826.009616668065</v>
       </c>
-    </row>
-    <row r="90" spans="1:30">
+      <c r="AE89" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="90" spans="1:31">
       <c r="A90" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B90">
         <v>5278537617</v>
@@ -10036,10 +10309,13 @@
       <c r="AD90">
         <v>2256.496338899987</v>
       </c>
-    </row>
-    <row r="91" spans="1:30">
+      <c r="AE90" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="91" spans="1:31">
       <c r="A91" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B91">
         <v>4739794490</v>
@@ -10128,10 +10404,13 @@
       <c r="AD91">
         <v>2433.857586396715</v>
       </c>
-    </row>
-    <row r="92" spans="1:30">
+      <c r="AE91" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="92" spans="1:31">
       <c r="A92" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B92">
         <v>6254139459</v>
@@ -10220,10 +10499,13 @@
       <c r="AD92">
         <v>2415.617793400393</v>
       </c>
-    </row>
-    <row r="93" spans="1:30">
+      <c r="AE92" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="93" spans="1:31">
       <c r="A93" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B93">
         <v>3505812106</v>
@@ -10312,10 +10594,13 @@
       <c r="AD93">
         <v>2756.133830244192</v>
       </c>
-    </row>
-    <row r="94" spans="1:30">
+      <c r="AE93" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="94" spans="1:31">
       <c r="A94" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B94">
         <v>5773932756</v>
@@ -10404,10 +10689,13 @@
       <c r="AD94">
         <v>2405.705137275299</v>
       </c>
-    </row>
-    <row r="95" spans="1:30">
+      <c r="AE94" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="95" spans="1:31">
       <c r="A95" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B95">
         <v>2967845540</v>
@@ -10496,10 +10784,13 @@
       <c r="AD95">
         <v>2054.056779297964</v>
       </c>
-    </row>
-    <row r="96" spans="1:30">
+      <c r="AE95" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="96" spans="1:31">
       <c r="A96" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B96">
         <v>1695823240</v>
@@ -10588,10 +10879,13 @@
       <c r="AD96">
         <v>1992.203649660151</v>
       </c>
-    </row>
-    <row r="97" spans="1:30">
+      <c r="AE96" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="97" spans="1:31">
       <c r="A97" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B97">
         <v>5082070240</v>
@@ -10680,10 +10974,13 @@
       <c r="AD97">
         <v>2257.256468293538</v>
       </c>
-    </row>
-    <row r="98" spans="1:30">
+      <c r="AE97" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="98" spans="1:31">
       <c r="A98" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B98">
         <v>6370134403</v>
@@ -10772,10 +11069,13 @@
       <c r="AD98">
         <v>2236.074838597872</v>
       </c>
-    </row>
-    <row r="99" spans="1:30">
+      <c r="AE98" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="99" spans="1:31">
       <c r="A99" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B99">
         <v>4854942000</v>
@@ -10864,10 +11164,13 @@
       <c r="AD99">
         <v>2581.151807120063</v>
       </c>
-    </row>
-    <row r="100" spans="1:30">
+      <c r="AE99" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="100" spans="1:31">
       <c r="A100" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B100">
         <v>4796242720</v>
@@ -10956,10 +11259,13 @@
       <c r="AD100">
         <v>2702.722143051007</v>
       </c>
-    </row>
-    <row r="101" spans="1:30">
+      <c r="AE100" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="101" spans="1:31">
       <c r="A101" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B101">
         <v>3303875505</v>
@@ -11048,10 +11354,13 @@
       <c r="AD101">
         <v>2428.898893274263</v>
       </c>
-    </row>
-    <row r="102" spans="1:30">
+      <c r="AE101" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="102" spans="1:31">
       <c r="A102" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B102">
         <v>4042464242</v>
@@ -11140,10 +11449,13 @@
       <c r="AD102">
         <v>2858.776195252424</v>
       </c>
-    </row>
-    <row r="103" spans="1:30">
+      <c r="AE102" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="103" spans="1:31">
       <c r="A103" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B103">
         <v>12108060273</v>
@@ -11232,10 +11544,13 @@
       <c r="AD103">
         <v>2284.32629386127</v>
       </c>
-    </row>
-    <row r="104" spans="1:30">
+      <c r="AE103" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="104" spans="1:31">
       <c r="A104" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B104">
         <v>5155205814</v>
@@ -11324,10 +11639,13 @@
       <c r="AD104">
         <v>2273.311922055095</v>
       </c>
-    </row>
-    <row r="105" spans="1:30">
+      <c r="AE104" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="105" spans="1:31">
       <c r="A105" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B105">
         <v>3973782273</v>
@@ -11416,10 +11734,13 @@
       <c r="AD105">
         <v>2327.587457562602</v>
       </c>
-    </row>
-    <row r="106" spans="1:30">
+      <c r="AE105" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="106" spans="1:31">
       <c r="A106" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B106">
         <v>12108060273</v>
@@ -11508,10 +11829,13 @@
       <c r="AD106">
         <v>2284.32629386127</v>
       </c>
-    </row>
-    <row r="107" spans="1:30">
+      <c r="AE106" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="107" spans="1:31">
       <c r="A107" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B107">
         <v>38367216000</v>
@@ -11600,10 +11924,13 @@
       <c r="AD107">
         <v>3610.031815671424</v>
       </c>
-    </row>
-    <row r="108" spans="1:30">
+      <c r="AE107" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="108" spans="1:31">
       <c r="A108" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B108">
         <v>8134278000</v>
@@ -11692,10 +12019,13 @@
       <c r="AD108">
         <v>2251.125811057121</v>
       </c>
-    </row>
-    <row r="109" spans="1:30">
+      <c r="AE108" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="109" spans="1:31">
       <c r="A109" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B109">
         <v>31654780242</v>
@@ -11784,10 +12114,13 @@
       <c r="AD109">
         <v>4513.251196254649</v>
       </c>
-    </row>
-    <row r="110" spans="1:30">
+      <c r="AE109" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="110" spans="1:31">
       <c r="A110" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B110">
         <v>30232938000</v>
@@ -11876,10 +12209,13 @@
       <c r="AD110">
         <v>4587.995167598034</v>
       </c>
-    </row>
-    <row r="111" spans="1:30">
+      <c r="AE110" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="111" spans="1:31">
       <c r="A111" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B111">
         <v>30827659896</v>
@@ -11968,10 +12304,13 @@
       <c r="AD111">
         <v>4613.379027314472</v>
       </c>
-    </row>
-    <row r="112" spans="1:30">
+      <c r="AE111" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="112" spans="1:31">
       <c r="A112" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B112">
         <v>784862530</v>
@@ -12060,10 +12399,13 @@
       <c r="AD112">
         <v>1628.914652874844</v>
       </c>
-    </row>
-    <row r="113" spans="1:30">
+      <c r="AE112" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="113" spans="1:31">
       <c r="A113" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B113">
         <v>329423173</v>
@@ -12152,10 +12494,13 @@
       <c r="AD113">
         <v>1090.129816393398</v>
       </c>
-    </row>
-    <row r="114" spans="1:30">
+      <c r="AE113" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="114" spans="1:31">
       <c r="A114" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B114">
         <v>1087923404</v>
@@ -12244,10 +12589,13 @@
       <c r="AD114">
         <v>1427.145444857321</v>
       </c>
-    </row>
-    <row r="115" spans="1:30">
+      <c r="AE114" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="115" spans="1:31">
       <c r="A115" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B115">
         <v>3513775902</v>
@@ -12336,10 +12684,13 @@
       <c r="AD115">
         <v>1884.711444708588</v>
       </c>
-    </row>
-    <row r="116" spans="1:30">
+      <c r="AE115" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="116" spans="1:31">
       <c r="A116" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B116">
         <v>6961811615</v>
@@ -12428,10 +12779,13 @@
       <c r="AD116">
         <v>1480.010458985219</v>
       </c>
-    </row>
-    <row r="117" spans="1:30">
+      <c r="AE116" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="117" spans="1:31">
       <c r="A117" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B117">
         <v>7491190502</v>
@@ -12520,10 +12874,13 @@
       <c r="AD117">
         <v>1683.432461772696</v>
       </c>
-    </row>
-    <row r="118" spans="1:30">
+      <c r="AE117" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="118" spans="1:31">
       <c r="A118" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B118">
         <v>4845386000</v>
@@ -12612,10 +12969,13 @@
       <c r="AD118">
         <v>1606.98888042816</v>
       </c>
-    </row>
-    <row r="119" spans="1:30">
+      <c r="AE118" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="119" spans="1:31">
       <c r="A119" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B119">
         <v>575078318</v>
@@ -12704,10 +13064,13 @@
       <c r="AD119">
         <v>1026.55586388352</v>
       </c>
-    </row>
-    <row r="120" spans="1:30">
+      <c r="AE119" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="120" spans="1:31">
       <c r="A120" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B120">
         <v>2172212214</v>
@@ -12796,10 +13159,13 @@
       <c r="AD120">
         <v>1913.423098054743</v>
       </c>
-    </row>
-    <row r="121" spans="1:30">
+      <c r="AE120" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="121" spans="1:31">
       <c r="A121" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B121">
         <v>1244352015</v>
@@ -12888,10 +13254,13 @@
       <c r="AD121">
         <v>1609.697114580096</v>
       </c>
-    </row>
-    <row r="122" spans="1:30">
+      <c r="AE121" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="122" spans="1:31">
       <c r="A122" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B122">
         <v>2300622102</v>
@@ -12980,10 +13349,13 @@
       <c r="AD122">
         <v>1772.516052593949</v>
       </c>
-    </row>
-    <row r="123" spans="1:30">
+      <c r="AE122" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="123" spans="1:31">
       <c r="A123" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B123">
         <v>440785177</v>
@@ -13072,10 +13444,13 @@
       <c r="AD123">
         <v>1105.136928691008</v>
       </c>
-    </row>
-    <row r="124" spans="1:30">
+      <c r="AE123" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="124" spans="1:31">
       <c r="A124" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B124">
         <v>6216400607</v>
@@ -13164,10 +13539,13 @@
       <c r="AD124">
         <v>1491.138335885268</v>
       </c>
-    </row>
-    <row r="125" spans="1:30">
+      <c r="AE124" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="125" spans="1:31">
       <c r="A125" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B125">
         <v>2447027008</v>
@@ -13256,10 +13634,13 @@
       <c r="AD125">
         <v>1543.667346681813</v>
       </c>
-    </row>
-    <row r="126" spans="1:30">
+      <c r="AE125" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="126" spans="1:31">
       <c r="A126" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B126">
         <v>4021054584</v>
@@ -13348,10 +13729,13 @@
       <c r="AD126">
         <v>5067.986858628839</v>
       </c>
-    </row>
-    <row r="127" spans="1:30">
+      <c r="AE126" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="127" spans="1:31">
       <c r="A127" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B127">
         <v>432606959</v>
@@ -13440,10 +13824,13 @@
       <c r="AD127">
         <v>882.6953751985667</v>
       </c>
-    </row>
-    <row r="128" spans="1:30">
+      <c r="AE127" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="128" spans="1:31">
       <c r="A128" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B128">
         <v>467826447</v>
@@ -13532,10 +13919,13 @@
       <c r="AD128">
         <v>950.6667995696951</v>
       </c>
-    </row>
-    <row r="129" spans="1:30">
+      <c r="AE128" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="129" spans="1:31">
       <c r="A129" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B129">
         <v>564894280</v>
@@ -13624,10 +14014,13 @@
       <c r="AD129">
         <v>971.55533850575</v>
       </c>
-    </row>
-    <row r="130" spans="1:30">
+      <c r="AE129" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="130" spans="1:31">
       <c r="A130" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B130">
         <v>569768586</v>
@@ -13716,10 +14109,13 @@
       <c r="AD130">
         <v>1177.976244996528</v>
       </c>
-    </row>
-    <row r="131" spans="1:30">
+      <c r="AE130" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="131" spans="1:31">
       <c r="A131" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B131">
         <v>782845325</v>
@@ -13808,10 +14204,13 @@
       <c r="AD131">
         <v>798.9081077051198</v>
       </c>
-    </row>
-    <row r="132" spans="1:30">
+      <c r="AE131" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="132" spans="1:31">
       <c r="A132" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B132">
         <v>644730941</v>
@@ -13900,10 +14299,13 @@
       <c r="AD132">
         <v>817.3103143405696</v>
       </c>
-    </row>
-    <row r="133" spans="1:30">
+      <c r="AE132" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="133" spans="1:31">
       <c r="A133" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B133">
         <v>22047308686</v>
@@ -13992,10 +14394,13 @@
       <c r="AD133">
         <v>1459.553719187708</v>
       </c>
-    </row>
-    <row r="134" spans="1:30">
+      <c r="AE133" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="134" spans="1:31">
       <c r="A134" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B134">
         <v>22198221058</v>
@@ -14084,10 +14489,13 @@
       <c r="AD134">
         <v>1418.993986525541</v>
       </c>
-    </row>
-    <row r="135" spans="1:30">
+      <c r="AE134" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="135" spans="1:31">
       <c r="A135" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B135">
         <v>21693724694</v>
@@ -14176,10 +14584,13 @@
       <c r="AD135">
         <v>1426.326099530652</v>
       </c>
-    </row>
-    <row r="136" spans="1:30">
+      <c r="AE135" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="136" spans="1:31">
       <c r="A136" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B136">
         <v>21693724694</v>
@@ -14268,10 +14679,13 @@
       <c r="AD136">
         <v>1426.326099530652</v>
       </c>
-    </row>
-    <row r="137" spans="1:30">
+      <c r="AE136" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="137" spans="1:31">
       <c r="A137" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B137">
         <v>21631970626</v>
@@ -14360,10 +14774,13 @@
       <c r="AD137">
         <v>1480.496927063395</v>
       </c>
-    </row>
-    <row r="138" spans="1:30">
+      <c r="AE137" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="138" spans="1:31">
       <c r="A138" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B138">
         <v>21693724694</v>
@@ -14452,10 +14869,13 @@
       <c r="AD138">
         <v>1426.326099530652</v>
       </c>
-    </row>
-    <row r="139" spans="1:30">
+      <c r="AE138" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="139" spans="1:31">
       <c r="A139" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B139">
         <v>21094656928</v>
@@ -14544,10 +14964,13 @@
       <c r="AD139">
         <v>1569.81781139383</v>
       </c>
-    </row>
-    <row r="140" spans="1:30">
+      <c r="AE139" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="140" spans="1:31">
       <c r="A140" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B140">
         <v>21950707742</v>
@@ -14636,10 +15059,13 @@
       <c r="AD140">
         <v>1357.367175574903</v>
       </c>
-    </row>
-    <row r="141" spans="1:30">
+      <c r="AE140" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="141" spans="1:31">
       <c r="A141" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B141">
         <v>21773497123</v>
@@ -14728,10 +15154,13 @@
       <c r="AD141">
         <v>1440.928240027936</v>
       </c>
-    </row>
-    <row r="142" spans="1:30">
+      <c r="AE141" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="142" spans="1:31">
       <c r="A142" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B142">
         <v>21773497123</v>
@@ -14820,10 +15249,13 @@
       <c r="AD142">
         <v>1440.928240027936</v>
       </c>
-    </row>
-    <row r="143" spans="1:30">
+      <c r="AE142" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="143" spans="1:31">
       <c r="A143" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B143">
         <v>23504832699</v>
@@ -14912,10 +15344,13 @@
       <c r="AD143">
         <v>1228.890328406041</v>
       </c>
-    </row>
-    <row r="144" spans="1:30">
+      <c r="AE143" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="144" spans="1:31">
       <c r="A144" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B144">
         <v>337629422</v>
@@ -15004,10 +15439,13 @@
       <c r="AD144">
         <v>699.8693437300761</v>
       </c>
-    </row>
-    <row r="145" spans="1:30">
+      <c r="AE144" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="145" spans="1:31">
       <c r="A145" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B145">
         <v>619015043</v>
@@ -15096,10 +15534,13 @@
       <c r="AD145">
         <v>713.651581334135</v>
       </c>
-    </row>
-    <row r="146" spans="1:30">
+      <c r="AE145" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="146" spans="1:31">
       <c r="A146" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B146">
         <v>1256304602</v>
@@ -15188,10 +15629,13 @@
       <c r="AD146">
         <v>676.4404795145872</v>
       </c>
-    </row>
-    <row r="147" spans="1:30">
+      <c r="AE146" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="147" spans="1:31">
       <c r="A147" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B147">
         <v>649431236</v>
@@ -15280,10 +15724,13 @@
       <c r="AD147">
         <v>713.4830959652479</v>
       </c>
-    </row>
-    <row r="148" spans="1:30">
+      <c r="AE147" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="148" spans="1:31">
       <c r="A148" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B148">
         <v>983456707</v>
@@ -15372,10 +15819,13 @@
       <c r="AD148">
         <v>782.4005783563127</v>
       </c>
-    </row>
-    <row r="149" spans="1:30">
+      <c r="AE148" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="149" spans="1:31">
       <c r="A149" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B149">
         <v>728112198</v>
@@ -15464,10 +15914,13 @@
       <c r="AD149">
         <v>778.9575698051735</v>
       </c>
-    </row>
-    <row r="150" spans="1:30">
+      <c r="AE149" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="150" spans="1:31">
       <c r="A150" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B150">
         <v>21631970626</v>
@@ -15556,10 +16009,13 @@
       <c r="AD150">
         <v>1480.496927063395</v>
       </c>
-    </row>
-    <row r="151" spans="1:30">
+      <c r="AE150" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="151" spans="1:31">
       <c r="A151" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -15648,10 +16104,13 @@
       <c r="AD151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:30">
+      <c r="AE151" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="152" spans="1:31">
       <c r="A152" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B152">
         <v>254317233</v>
@@ -15740,10 +16199,13 @@
       <c r="AD152">
         <v>1254.890655435521</v>
       </c>
-    </row>
-    <row r="153" spans="1:30">
+      <c r="AE152" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="153" spans="1:31">
       <c r="A153" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B153">
         <v>220342111</v>
@@ -15832,10 +16294,13 @@
       <c r="AD153">
         <v>1950.169751845459</v>
       </c>
-    </row>
-    <row r="154" spans="1:30">
+      <c r="AE153" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="154" spans="1:31">
       <c r="A154" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B154">
         <v>384678712</v>
@@ -15924,10 +16389,13 @@
       <c r="AD154">
         <v>2297.117291947231</v>
       </c>
-    </row>
-    <row r="155" spans="1:30">
+      <c r="AE154" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="155" spans="1:31">
       <c r="A155" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B155">
         <v>528908611</v>
@@ -16016,10 +16484,13 @@
       <c r="AD155">
         <v>1291.974758670004</v>
       </c>
-    </row>
-    <row r="156" spans="1:30">
+      <c r="AE155" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="156" spans="1:31">
       <c r="A156" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B156">
         <v>1241714970</v>
@@ -16108,10 +16579,13 @@
       <c r="AD156">
         <v>1221.520643806858</v>
       </c>
-    </row>
-    <row r="157" spans="1:30">
+      <c r="AE156" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="157" spans="1:31">
       <c r="A157" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B157">
         <v>1035613420</v>
@@ -16200,10 +16674,13 @@
       <c r="AD157">
         <v>472.0864407247959</v>
       </c>
-    </row>
-    <row r="158" spans="1:30">
+      <c r="AE157" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="158" spans="1:31">
       <c r="A158" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B158">
         <v>248919026</v>
@@ -16292,10 +16769,13 @@
       <c r="AD158">
         <v>1422.546244769338</v>
       </c>
-    </row>
-    <row r="159" spans="1:30">
+      <c r="AE158" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="159" spans="1:31">
       <c r="A159" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B159">
         <v>279881511</v>
@@ -16384,10 +16864,13 @@
       <c r="AD159">
         <v>2050.484456484194</v>
       </c>
-    </row>
-    <row r="160" spans="1:30">
+      <c r="AE159" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="160" spans="1:31">
       <c r="A160" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B160">
         <v>736108113</v>
@@ -16476,10 +16959,13 @@
       <c r="AD160">
         <v>1640.897132974928</v>
       </c>
-    </row>
-    <row r="161" spans="1:30">
+      <c r="AE160" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="161" spans="1:31">
       <c r="A161" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B161">
         <v>2573893999</v>
@@ -16568,10 +17054,13 @@
       <c r="AD161">
         <v>1937.424887130861</v>
       </c>
-    </row>
-    <row r="162" spans="1:30">
+      <c r="AE161" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="162" spans="1:31">
       <c r="A162" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B162">
         <v>3421402654</v>
@@ -16660,10 +17149,13 @@
       <c r="AD162">
         <v>2141.210769986259</v>
       </c>
-    </row>
-    <row r="163" spans="1:30">
+      <c r="AE162" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="163" spans="1:31">
       <c r="A163" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B163">
         <v>542223257</v>
@@ -16752,10 +17244,13 @@
       <c r="AD163">
         <v>985.3271782651952</v>
       </c>
-    </row>
-    <row r="164" spans="1:30">
+      <c r="AE163" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="164" spans="1:31">
       <c r="A164" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B164">
         <v>101797659</v>
@@ -16844,10 +17339,13 @@
       <c r="AD164">
         <v>436.20111262048</v>
       </c>
-    </row>
-    <row r="165" spans="1:30">
+      <c r="AE164" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="165" spans="1:31">
       <c r="A165" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B165">
         <v>124718282</v>
@@ -16936,10 +17434,13 @@
       <c r="AD165">
         <v>480.7843525322521</v>
       </c>
-    </row>
-    <row r="166" spans="1:30">
+      <c r="AE165" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="166" spans="1:31">
       <c r="A166" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B166">
         <v>163922734</v>
@@ -17028,10 +17529,13 @@
       <c r="AD166">
         <v>442.4609595472668</v>
       </c>
-    </row>
-    <row r="167" spans="1:30">
+      <c r="AE166" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="167" spans="1:31">
       <c r="A167" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B167">
         <v>150479137</v>
@@ -17120,10 +17624,13 @@
       <c r="AD167">
         <v>426.5270889041622</v>
       </c>
-    </row>
-    <row r="168" spans="1:30">
+      <c r="AE167" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="168" spans="1:31">
       <c r="A168" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B168">
         <v>98542087</v>
@@ -17212,10 +17719,13 @@
       <c r="AD168">
         <v>510.9066323639414</v>
       </c>
-    </row>
-    <row r="169" spans="1:30">
+      <c r="AE168" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="169" spans="1:31">
       <c r="A169" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B169">
         <v>1301194461</v>
@@ -17304,10 +17814,13 @@
       <c r="AD169">
         <v>888.1005153944438</v>
       </c>
-    </row>
-    <row r="170" spans="1:30">
+      <c r="AE169" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="170" spans="1:31">
       <c r="A170" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B170">
         <v>394343686</v>
@@ -17396,10 +17909,13 @@
       <c r="AD170">
         <v>665.4761127580842</v>
       </c>
-    </row>
-    <row r="171" spans="1:30">
+      <c r="AE170" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="171" spans="1:31">
       <c r="A171" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B171">
         <v>354978276</v>
@@ -17488,10 +18004,13 @@
       <c r="AD171">
         <v>650.6574570877161</v>
       </c>
-    </row>
-    <row r="172" spans="1:30">
+      <c r="AE171" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="172" spans="1:31">
       <c r="A172" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B172">
         <v>424961218</v>
@@ -17580,10 +18099,13 @@
       <c r="AD172">
         <v>679.2479710254854</v>
       </c>
-    </row>
-    <row r="173" spans="1:30">
+      <c r="AE172" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="173" spans="1:31">
       <c r="A173" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B173">
         <v>306947033</v>
@@ -17672,10 +18194,13 @@
       <c r="AD173">
         <v>615.8249730391442</v>
       </c>
-    </row>
-    <row r="174" spans="1:30">
+      <c r="AE173" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="174" spans="1:31">
       <c r="A174" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B174">
         <v>972679504</v>
@@ -17764,10 +18289,13 @@
       <c r="AD174">
         <v>1183.041372566261</v>
       </c>
-    </row>
-    <row r="175" spans="1:30">
+      <c r="AE174" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="175" spans="1:31">
       <c r="A175" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -17856,10 +18384,13 @@
       <c r="AD175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:30">
+      <c r="AE175" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="176" spans="1:31">
       <c r="A176" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B176">
         <v>138833958</v>
@@ -17948,10 +18479,13 @@
       <c r="AD176">
         <v>28.82096431384359</v>
       </c>
-    </row>
-    <row r="177" spans="1:30">
+      <c r="AE176" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="177" spans="1:31">
       <c r="A177" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -18040,10 +18574,13 @@
       <c r="AD177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:30">
+      <c r="AE177" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="178" spans="1:31">
       <c r="A178" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B178">
         <v>318385996</v>
@@ -18132,10 +18669,13 @@
       <c r="AD178">
         <v>39.40079997598225</v>
       </c>
-    </row>
-    <row r="179" spans="1:30">
+      <c r="AE178" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="179" spans="1:31">
       <c r="A179" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B179">
         <v>138833958</v>
@@ -18224,10 +18764,13 @@
       <c r="AD179">
         <v>31.5378010749247</v>
       </c>
-    </row>
-    <row r="180" spans="1:30">
+      <c r="AE179" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="180" spans="1:31">
       <c r="A180" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -18316,10 +18859,13 @@
       <c r="AD180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:30">
+      <c r="AE180" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="181" spans="1:31">
       <c r="A181" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B181">
         <v>138833958</v>
@@ -18408,10 +18954,13 @@
       <c r="AD181">
         <v>31.5378010749247</v>
       </c>
-    </row>
-    <row r="182" spans="1:30">
+      <c r="AE181" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="182" spans="1:31">
       <c r="A182" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B182">
         <v>318385996</v>
@@ -18500,10 +19049,13 @@
       <c r="AD182">
         <v>64.77316977793977</v>
       </c>
-    </row>
-    <row r="183" spans="1:30">
+      <c r="AE182" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="183" spans="1:31">
       <c r="A183" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B183">
         <v>472858883</v>
@@ -18592,10 +19144,13 @@
       <c r="AD183">
         <v>119.9631497814874</v>
       </c>
-    </row>
-    <row r="184" spans="1:30">
+      <c r="AE183" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="184" spans="1:31">
       <c r="A184" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B184">
         <v>20867577527</v>
@@ -18684,10 +19239,13 @@
       <c r="AD184">
         <v>4429.06452430026</v>
       </c>
-    </row>
-    <row r="185" spans="1:30">
+      <c r="AE184" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="185" spans="1:31">
       <c r="A185" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B185">
         <v>37713768781</v>
@@ -18776,10 +19334,13 @@
       <c r="AD185">
         <v>4949.706265900391</v>
       </c>
-    </row>
-    <row r="186" spans="1:30">
+      <c r="AE185" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="186" spans="1:31">
       <c r="A186" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B186">
         <v>8132984623</v>
@@ -18868,10 +19429,13 @@
       <c r="AD186">
         <v>4664.289569636506</v>
       </c>
-    </row>
-    <row r="187" spans="1:30">
+      <c r="AE186" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="187" spans="1:31">
       <c r="A187" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B187">
         <v>6346547125</v>
@@ -18960,10 +19524,13 @@
       <c r="AD187">
         <v>5617.336726757773</v>
       </c>
-    </row>
-    <row r="188" spans="1:30">
+      <c r="AE187" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="188" spans="1:31">
       <c r="A188" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B188">
         <v>5995087650</v>
@@ -19052,10 +19619,13 @@
       <c r="AD188">
         <v>3763.551861466999</v>
       </c>
-    </row>
-    <row r="189" spans="1:30">
+      <c r="AE188" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="189" spans="1:31">
       <c r="A189" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B189">
         <v>8109790508</v>
@@ -19144,10 +19714,13 @@
       <c r="AD189">
         <v>4893.951458662248</v>
       </c>
-    </row>
-    <row r="190" spans="1:30">
+      <c r="AE189" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="190" spans="1:31">
       <c r="A190" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B190">
         <v>37252234000</v>
@@ -19236,10 +19809,13 @@
       <c r="AD190">
         <v>5041.662992528365</v>
       </c>
-    </row>
-    <row r="191" spans="1:30">
+      <c r="AE190" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="191" spans="1:31">
       <c r="A191" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B191">
         <v>6346547125</v>
@@ -19328,10 +19904,13 @@
       <c r="AD191">
         <v>5617.336726757773</v>
       </c>
-    </row>
-    <row r="192" spans="1:30">
+      <c r="AE191" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="192" spans="1:31">
       <c r="A192" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B192">
         <v>85080121</v>
@@ -19420,10 +19999,13 @@
       <c r="AD192">
         <v>184.3640580906235</v>
       </c>
-    </row>
-    <row r="193" spans="1:30">
+      <c r="AE192" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="193" spans="1:31">
       <c r="A193" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B193">
         <v>64479858</v>
@@ -19512,10 +20094,13 @@
       <c r="AD193">
         <v>119.9414960727444</v>
       </c>
-    </row>
-    <row r="194" spans="1:30">
+      <c r="AE193" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="194" spans="1:31">
       <c r="A194" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B194">
         <v>722217815</v>
@@ -19604,10 +20189,13 @@
       <c r="AD194">
         <v>1140.467189458684</v>
       </c>
-    </row>
-    <row r="195" spans="1:30">
+      <c r="AE194" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="195" spans="1:31">
       <c r="A195" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B195">
         <v>1698148195</v>
@@ -19696,10 +20284,13 @@
       <c r="AD195">
         <v>819.6069245725137</v>
       </c>
-    </row>
-    <row r="196" spans="1:30">
+      <c r="AE195" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="196" spans="1:31">
       <c r="A196" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B196">
         <v>1070216104</v>
@@ -19788,10 +20379,13 @@
       <c r="AD196">
         <v>799.6158618767173</v>
       </c>
-    </row>
-    <row r="197" spans="1:30">
+      <c r="AE196" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="197" spans="1:31">
       <c r="A197" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B197">
         <v>860012116</v>
@@ -19880,10 +20474,13 @@
       <c r="AD197">
         <v>849.8907416732609</v>
       </c>
-    </row>
-    <row r="198" spans="1:30">
+      <c r="AE197" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="198" spans="1:31">
       <c r="A198" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B198">
         <v>1136367218</v>
@@ -19972,10 +20569,13 @@
       <c r="AD198">
         <v>856.5401819806924</v>
       </c>
-    </row>
-    <row r="199" spans="1:30">
+      <c r="AE198" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="199" spans="1:31">
       <c r="A199" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B199">
         <v>2949271650</v>
@@ -20064,10 +20664,13 @@
       <c r="AD199">
         <v>840.7095972457463</v>
       </c>
-    </row>
-    <row r="200" spans="1:30">
+      <c r="AE199" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="200" spans="1:31">
       <c r="A200" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B200">
         <v>2196429500</v>
@@ -20156,10 +20759,13 @@
       <c r="AD200">
         <v>840.9700024505705</v>
       </c>
-    </row>
-    <row r="201" spans="1:30">
+      <c r="AE200" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="201" spans="1:31">
       <c r="A201" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B201">
         <v>1117438736</v>
@@ -20248,10 +20854,13 @@
       <c r="AD201">
         <v>836.0369214153528</v>
       </c>
-    </row>
-    <row r="202" spans="1:30">
+      <c r="AE201" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="202" spans="1:31">
       <c r="A202" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B202">
         <v>1693443669</v>
@@ -20340,10 +20949,13 @@
       <c r="AD202">
         <v>994.3728019415327</v>
       </c>
-    </row>
-    <row r="203" spans="1:30">
+      <c r="AE202" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="203" spans="1:31">
       <c r="A203" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B203">
         <v>1376593538</v>
@@ -20432,10 +21044,13 @@
       <c r="AD203">
         <v>1005.070840141138</v>
       </c>
-    </row>
-    <row r="204" spans="1:30">
+      <c r="AE203" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="204" spans="1:31">
       <c r="A204" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B204">
         <v>680792770</v>
@@ -20524,10 +21139,13 @@
       <c r="AD204">
         <v>849.6451767309194</v>
       </c>
-    </row>
-    <row r="205" spans="1:30">
+      <c r="AE204" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="205" spans="1:31">
       <c r="A205" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B205">
         <v>2504536257</v>
@@ -20616,10 +21234,13 @@
       <c r="AD205">
         <v>814.077666997833</v>
       </c>
-    </row>
-    <row r="206" spans="1:30">
+      <c r="AE205" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="206" spans="1:31">
       <c r="A206" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B206">
         <v>1823743487</v>
@@ -20708,10 +21329,13 @@
       <c r="AD206">
         <v>788.8053958938395</v>
       </c>
-    </row>
-    <row r="207" spans="1:30">
+      <c r="AE206" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="207" spans="1:31">
       <c r="A207" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B207">
         <v>1013124341</v>
@@ -20800,10 +21424,13 @@
       <c r="AD207">
         <v>1789.014331556764</v>
       </c>
-    </row>
-    <row r="208" spans="1:30">
+      <c r="AE207" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="208" spans="1:31">
       <c r="A208" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B208">
         <v>719363514</v>
@@ -20892,10 +21519,13 @@
       <c r="AD208">
         <v>729.5129283014043</v>
       </c>
-    </row>
-    <row r="209" spans="1:30">
+      <c r="AE208" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="209" spans="1:31">
       <c r="A209" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B209">
         <v>3697501377</v>
@@ -20984,10 +21614,13 @@
       <c r="AD209">
         <v>2771.422551140714</v>
       </c>
-    </row>
-    <row r="210" spans="1:30">
+      <c r="AE209" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="210" spans="1:31">
       <c r="A210" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B210">
         <v>1022839457</v>
@@ -21076,10 +21709,13 @@
       <c r="AD210">
         <v>1856.661516602128</v>
       </c>
-    </row>
-    <row r="211" spans="1:30">
+      <c r="AE210" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="211" spans="1:31">
       <c r="A211" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B211">
         <v>4361278353</v>
@@ -21168,10 +21804,13 @@
       <c r="AD211">
         <v>2609.312580363651</v>
       </c>
-    </row>
-    <row r="212" spans="1:30">
+      <c r="AE211" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="212" spans="1:31">
       <c r="A212" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B212">
         <v>4246899409</v>
@@ -21260,10 +21899,13 @@
       <c r="AD212">
         <v>2444.492653067187</v>
       </c>
-    </row>
-    <row r="213" spans="1:30">
+      <c r="AE212" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="213" spans="1:31">
       <c r="A213" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B213">
         <v>1332799788</v>
@@ -21352,10 +21994,13 @@
       <c r="AD213">
         <v>2378.272510738955</v>
       </c>
-    </row>
-    <row r="214" spans="1:30">
+      <c r="AE213" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="214" spans="1:31">
       <c r="A214" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B214">
         <v>1580753019</v>
@@ -21444,10 +22089,13 @@
       <c r="AD214">
         <v>2025.145254403831</v>
       </c>
-    </row>
-    <row r="215" spans="1:30">
+      <c r="AE214" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="215" spans="1:31">
       <c r="A215" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B215">
         <v>10071106090</v>
@@ -21536,10 +22184,13 @@
       <c r="AD215">
         <v>2178.735394567971</v>
       </c>
-    </row>
-    <row r="216" spans="1:30">
+      <c r="AE215" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="216" spans="1:31">
       <c r="A216" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B216">
         <v>5238100109</v>
@@ -21628,10 +22279,13 @@
       <c r="AD216">
         <v>1749.754692195842</v>
       </c>
-    </row>
-    <row r="217" spans="1:30">
+      <c r="AE216" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="217" spans="1:31">
       <c r="A217" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B217">
         <v>257115929</v>
@@ -21720,10 +22374,13 @@
       <c r="AD217">
         <v>590.5305897908067</v>
       </c>
-    </row>
-    <row r="218" spans="1:30">
+      <c r="AE217" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="218" spans="1:31">
       <c r="A218" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B218">
         <v>1015262438</v>
@@ -21812,10 +22469,13 @@
       <c r="AD218">
         <v>450.2151501135558</v>
       </c>
-    </row>
-    <row r="219" spans="1:30">
+      <c r="AE218" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="219" spans="1:31">
       <c r="A219" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B219">
         <v>886028808</v>
@@ -21904,10 +22564,13 @@
       <c r="AD219">
         <v>514.8594095172937</v>
       </c>
-    </row>
-    <row r="220" spans="1:30">
+      <c r="AE219" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="220" spans="1:31">
       <c r="A220" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B220">
         <v>960275820</v>
@@ -21996,10 +22659,13 @@
       <c r="AD220">
         <v>434.9555750503127</v>
       </c>
-    </row>
-    <row r="221" spans="1:30">
+      <c r="AE220" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="221" spans="1:31">
       <c r="A221" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B221">
         <v>295719195</v>
@@ -22088,10 +22754,13 @@
       <c r="AD221">
         <v>510.4652918121715</v>
       </c>
-    </row>
-    <row r="222" spans="1:30">
+      <c r="AE221" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="222" spans="1:31">
       <c r="A222" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B222">
         <v>37172750</v>
@@ -22180,10 +22849,13 @@
       <c r="AD222">
         <v>221.2444138214333</v>
       </c>
-    </row>
-    <row r="223" spans="1:30">
+      <c r="AE222" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="223" spans="1:31">
       <c r="A223" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B223">
         <v>632616421</v>
@@ -22272,10 +22944,13 @@
       <c r="AD223">
         <v>526.5133698851621</v>
       </c>
-    </row>
-    <row r="224" spans="1:30">
+      <c r="AE223" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="224" spans="1:31">
       <c r="A224" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B224">
         <v>621782382</v>
@@ -22364,10 +23039,13 @@
       <c r="AD224">
         <v>475.0212367844877</v>
       </c>
-    </row>
-    <row r="225" spans="1:30">
+      <c r="AE224" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="225" spans="1:31">
       <c r="A225" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B225">
         <v>499617161</v>
@@ -22456,10 +23134,13 @@
       <c r="AD225">
         <v>319.8938351536715</v>
       </c>
-    </row>
-    <row r="226" spans="1:30">
+      <c r="AE225" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="226" spans="1:31">
       <c r="A226" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B226">
         <v>371053204</v>
@@ -22548,10 +23229,13 @@
       <c r="AD226">
         <v>320.3722261418245</v>
       </c>
-    </row>
-    <row r="227" spans="1:30">
+      <c r="AE226" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="227" spans="1:31">
       <c r="A227" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B227">
         <v>448740856</v>
@@ -22640,10 +23324,13 @@
       <c r="AD227">
         <v>896.8595086514858</v>
       </c>
-    </row>
-    <row r="228" spans="1:30">
+      <c r="AE227" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="228" spans="1:31">
       <c r="A228" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B228">
         <v>424967026</v>
@@ -22732,10 +23419,13 @@
       <c r="AD228">
         <v>1229.541926241552</v>
       </c>
-    </row>
-    <row r="229" spans="1:30">
+      <c r="AE228" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="229" spans="1:31">
       <c r="A229" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B229">
         <v>1480014701</v>
@@ -22824,10 +23514,13 @@
       <c r="AD229">
         <v>1838.957771167186</v>
       </c>
-    </row>
-    <row r="230" spans="1:30">
+      <c r="AE229" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="230" spans="1:31">
       <c r="A230" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B230">
         <v>4057688096</v>
@@ -22916,10 +23609,13 @@
       <c r="AD230">
         <v>1832.048366689009</v>
       </c>
-    </row>
-    <row r="231" spans="1:30">
+      <c r="AE230" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="231" spans="1:31">
       <c r="A231" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B231">
         <v>2186268552</v>
@@ -23008,10 +23704,13 @@
       <c r="AD231">
         <v>2064.746645899627</v>
       </c>
-    </row>
-    <row r="232" spans="1:30">
+      <c r="AE231" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="232" spans="1:31">
       <c r="A232" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B232">
         <v>2183919570</v>
@@ -23100,10 +23799,13 @@
       <c r="AD232">
         <v>1868.164479296499</v>
       </c>
-    </row>
-    <row r="233" spans="1:30">
+      <c r="AE232" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="233" spans="1:31">
       <c r="A233" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B233">
         <v>1825273136</v>
@@ -23192,10 +23894,13 @@
       <c r="AD233">
         <v>1715.902747458477</v>
       </c>
-    </row>
-    <row r="234" spans="1:30">
+      <c r="AE233" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="234" spans="1:31">
       <c r="A234" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B234">
         <v>2388678911</v>
@@ -23284,10 +23989,13 @@
       <c r="AD234">
         <v>1578.096135703761</v>
       </c>
-    </row>
-    <row r="235" spans="1:30">
+      <c r="AE234" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="235" spans="1:31">
       <c r="A235" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B235">
         <v>2548644454</v>
@@ -23376,10 +24084,13 @@
       <c r="AD235">
         <v>2081.163967244283</v>
       </c>
-    </row>
-    <row r="236" spans="1:30">
+      <c r="AE235" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="236" spans="1:31">
       <c r="A236" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B236">
         <v>2456361074</v>
@@ -23468,10 +24179,13 @@
       <c r="AD236">
         <v>1884.245196192534</v>
       </c>
-    </row>
-    <row r="237" spans="1:30">
+      <c r="AE236" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="237" spans="1:31">
       <c r="A237" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B237">
         <v>2081470669</v>
@@ -23560,10 +24274,13 @@
       <c r="AD237">
         <v>1783.215359411493</v>
       </c>
-    </row>
-    <row r="238" spans="1:30">
+      <c r="AE237" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="238" spans="1:31">
       <c r="A238" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B238">
         <v>1904244740</v>
@@ -23652,10 +24369,13 @@
       <c r="AD238">
         <v>1838.811262743667</v>
       </c>
-    </row>
-    <row r="239" spans="1:30">
+      <c r="AE238" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="239" spans="1:31">
       <c r="A239" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B239">
         <v>1641881765</v>
@@ -23744,10 +24464,13 @@
       <c r="AD239">
         <v>2107.387175039383</v>
       </c>
-    </row>
-    <row r="240" spans="1:30">
+      <c r="AE239" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="240" spans="1:31">
       <c r="A240" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B240">
         <v>3791041677</v>
@@ -23836,10 +24559,13 @@
       <c r="AD240">
         <v>2125.675523527715</v>
       </c>
-    </row>
-    <row r="241" spans="1:30">
+      <c r="AE240" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="241" spans="1:31">
       <c r="A241" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B241">
         <v>5551849096</v>
@@ -23928,10 +24654,13 @@
       <c r="AD241">
         <v>1890.759313320746</v>
       </c>
-    </row>
-    <row r="242" spans="1:30">
+      <c r="AE241" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="242" spans="1:31">
       <c r="A242" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B242">
         <v>3606474275</v>
@@ -24020,10 +24749,13 @@
       <c r="AD242">
         <v>2104.141658007485</v>
       </c>
-    </row>
-    <row r="243" spans="1:30">
+      <c r="AE242" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="243" spans="1:31">
       <c r="A243" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B243">
         <v>406010538</v>
@@ -24112,10 +24844,13 @@
       <c r="AD243">
         <v>883.2621940184138</v>
       </c>
-    </row>
-    <row r="244" spans="1:30">
+      <c r="AE243" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="244" spans="1:31">
       <c r="A244" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B244">
         <v>345492061</v>
@@ -24204,10 +24939,13 @@
       <c r="AD244">
         <v>888.2183305613601</v>
       </c>
-    </row>
-    <row r="245" spans="1:30">
+      <c r="AE244" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="245" spans="1:31">
       <c r="A245" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B245">
         <v>800963172</v>
@@ -24296,10 +25034,13 @@
       <c r="AD245">
         <v>801.4500344244224</v>
       </c>
-    </row>
-    <row r="246" spans="1:30">
+      <c r="AE245" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="246" spans="1:31">
       <c r="A246" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B246">
         <v>206910352</v>
@@ -24388,10 +25129,13 @@
       <c r="AD246">
         <v>1193.515323890279</v>
       </c>
-    </row>
-    <row r="247" spans="1:30">
+      <c r="AE246" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="247" spans="1:31">
       <c r="A247" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B247">
         <v>555686263</v>
@@ -24480,10 +25224,13 @@
       <c r="AD247">
         <v>406.4246921298844</v>
       </c>
-    </row>
-    <row r="248" spans="1:30">
+      <c r="AE247" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="248" spans="1:31">
       <c r="A248" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B248">
         <v>722386162</v>
@@ -24572,10 +25319,13 @@
       <c r="AD248">
         <v>466.3617452910784</v>
       </c>
-    </row>
-    <row r="249" spans="1:30">
+      <c r="AE248" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="249" spans="1:31">
       <c r="A249" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B249">
         <v>147945825</v>
@@ -24664,10 +25414,13 @@
       <c r="AD249">
         <v>315.4350726648885</v>
       </c>
-    </row>
-    <row r="250" spans="1:30">
+      <c r="AE249" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="250" spans="1:31">
       <c r="A250" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B250">
         <v>4137415079</v>
@@ -24756,10 +25509,13 @@
       <c r="AD250">
         <v>892.5784811522529</v>
       </c>
-    </row>
-    <row r="251" spans="1:30">
+      <c r="AE250" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="251" spans="1:31">
       <c r="A251" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B251">
         <v>4601238285</v>
@@ -24848,10 +25604,13 @@
       <c r="AD251">
         <v>1238.668582305283</v>
       </c>
-    </row>
-    <row r="252" spans="1:30">
+      <c r="AE251" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="252" spans="1:31">
       <c r="A252" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B252">
         <v>4214877934</v>
@@ -24940,10 +25699,13 @@
       <c r="AD252">
         <v>937.5934917414194</v>
       </c>
-    </row>
-    <row r="253" spans="1:30">
+      <c r="AE252" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="253" spans="1:31">
       <c r="A253" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B253">
         <v>3047927058</v>
@@ -25032,10 +25794,13 @@
       <c r="AD253">
         <v>972.1566483479162</v>
       </c>
-    </row>
-    <row r="254" spans="1:30">
+      <c r="AE253" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="254" spans="1:31">
       <c r="A254" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B254">
         <v>6570965845</v>
@@ -25124,10 +25889,13 @@
       <c r="AD254">
         <v>881.5357116703764</v>
       </c>
-    </row>
-    <row r="255" spans="1:30">
+      <c r="AE254" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="255" spans="1:31">
       <c r="A255" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B255">
         <v>4084597029</v>
@@ -25216,10 +25984,13 @@
       <c r="AD255">
         <v>865.2784553398581</v>
       </c>
-    </row>
-    <row r="256" spans="1:30">
+      <c r="AE255" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="256" spans="1:31">
       <c r="A256" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B256">
         <v>5695339129</v>
@@ -25308,10 +26079,13 @@
       <c r="AD256">
         <v>1037.914028230113</v>
       </c>
-    </row>
-    <row r="257" spans="1:30">
+      <c r="AE256" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="257" spans="1:31">
       <c r="A257" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B257">
         <v>6262794146</v>
@@ -25400,10 +26174,13 @@
       <c r="AD257">
         <v>1136.439362438401</v>
       </c>
-    </row>
-    <row r="258" spans="1:30">
+      <c r="AE257" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="258" spans="1:31">
       <c r="A258" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B258">
         <v>8177540951</v>
@@ -25492,10 +26269,13 @@
       <c r="AD258">
         <v>936.4761741976873</v>
       </c>
-    </row>
-    <row r="259" spans="1:30">
+      <c r="AE258" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="259" spans="1:31">
       <c r="A259" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B259">
         <v>6262794146</v>
@@ -25584,10 +26364,13 @@
       <c r="AD259">
         <v>1136.439362438401</v>
       </c>
-    </row>
-    <row r="260" spans="1:30">
+      <c r="AE259" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="260" spans="1:31">
       <c r="A260" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B260">
         <v>7319780104</v>
@@ -25676,10 +26459,13 @@
       <c r="AD260">
         <v>1024.818201992398</v>
       </c>
-    </row>
-    <row r="261" spans="1:30">
+      <c r="AE260" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="261" spans="1:31">
       <c r="A261" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B261">
         <v>6042130219</v>
@@ -25768,10 +26554,13 @@
       <c r="AD261">
         <v>1012.150224457923</v>
       </c>
-    </row>
-    <row r="262" spans="1:30">
+      <c r="AE261" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="262" spans="1:31">
       <c r="A262" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B262">
         <v>1640326869</v>
@@ -25860,10 +26649,13 @@
       <c r="AD262">
         <v>1063.279258703145</v>
       </c>
-    </row>
-    <row r="263" spans="1:30">
+      <c r="AE262" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="263" spans="1:31">
       <c r="A263" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B263">
         <v>1704434696</v>
@@ -25952,10 +26744,13 @@
       <c r="AD263">
         <v>1389.661869237217</v>
       </c>
-    </row>
-    <row r="264" spans="1:30">
+      <c r="AE263" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="264" spans="1:31">
       <c r="A264" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B264">
         <v>1316267029</v>
@@ -26044,10 +26839,13 @@
       <c r="AD264">
         <v>1780.103667411448</v>
       </c>
-    </row>
-    <row r="265" spans="1:30">
+      <c r="AE264" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="265" spans="1:31">
       <c r="A265" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B265">
         <v>11071377186</v>
@@ -26136,10 +26934,13 @@
       <c r="AD265">
         <v>3099.831203605082</v>
       </c>
-    </row>
-    <row r="266" spans="1:30">
+      <c r="AE265" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="266" spans="1:31">
       <c r="A266" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B266">
         <v>1865676773</v>
@@ -26228,10 +27029,13 @@
       <c r="AD266">
         <v>1820.252694364301</v>
       </c>
-    </row>
-    <row r="267" spans="1:30">
+      <c r="AE266" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="267" spans="1:31">
       <c r="A267" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B267">
         <v>11071377186</v>
@@ -26320,10 +27124,13 @@
       <c r="AD267">
         <v>3099.831203605082</v>
       </c>
-    </row>
-    <row r="268" spans="1:30">
+      <c r="AE267" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="268" spans="1:31">
       <c r="A268" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B268">
         <v>11545884032</v>
@@ -26412,10 +27219,13 @@
       <c r="AD268">
         <v>3046.765285262423</v>
       </c>
-    </row>
-    <row r="269" spans="1:30">
+      <c r="AE268" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="269" spans="1:31">
       <c r="A269" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B269">
         <v>10306660237</v>
@@ -26504,10 +27314,13 @@
       <c r="AD269">
         <v>2681.216622453366</v>
       </c>
-    </row>
-    <row r="270" spans="1:30">
+      <c r="AE269" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="270" spans="1:31">
       <c r="A270" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B270">
         <v>24508067237</v>
@@ -26596,10 +27409,13 @@
       <c r="AD270">
         <v>2733.334851164369</v>
       </c>
-    </row>
-    <row r="271" spans="1:30">
+      <c r="AE270" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="271" spans="1:31">
       <c r="A271" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B271">
         <v>14201407000</v>
@@ -26688,10 +27504,13 @@
       <c r="AD271">
         <v>1024.574606029978</v>
       </c>
-    </row>
-    <row r="272" spans="1:30">
+      <c r="AE271" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="272" spans="1:31">
       <c r="A272" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B272">
         <v>14201407000</v>
@@ -26780,10 +27599,13 @@
       <c r="AD272">
         <v>2790.313209058467</v>
       </c>
-    </row>
-    <row r="273" spans="1:30">
+      <c r="AE272" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="273" spans="1:31">
       <c r="A273" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B273">
         <v>0</v>
@@ -26872,10 +27694,13 @@
       <c r="AD273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:30">
+      <c r="AE273" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="274" spans="1:31">
       <c r="A274" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B274">
         <v>0</v>
@@ -26964,10 +27789,13 @@
       <c r="AD274">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:30">
+      <c r="AE274" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="275" spans="1:31">
       <c r="A275" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B275">
         <v>0</v>
@@ -27056,10 +27884,13 @@
       <c r="AD275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:30">
+      <c r="AE275" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="276" spans="1:31">
       <c r="A276" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B276">
         <v>0</v>
@@ -27148,10 +27979,13 @@
       <c r="AD276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:30">
+      <c r="AE276" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="277" spans="1:31">
       <c r="A277" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B277">
         <v>0</v>
@@ -27240,10 +28074,13 @@
       <c r="AD277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:30">
+      <c r="AE277" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="278" spans="1:31">
       <c r="A278" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B278">
         <v>0</v>
@@ -27332,10 +28169,13 @@
       <c r="AD278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:30">
+      <c r="AE278" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="279" spans="1:31">
       <c r="A279" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B279">
         <v>0</v>
@@ -27424,10 +28264,13 @@
       <c r="AD279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:30">
+      <c r="AE279" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="280" spans="1:31">
       <c r="A280" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B280">
         <v>0</v>
@@ -27516,10 +28359,13 @@
       <c r="AD280">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:30">
+      <c r="AE280" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="281" spans="1:31">
       <c r="A281" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B281">
         <v>0</v>
@@ -27608,10 +28454,13 @@
       <c r="AD281">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:30">
+      <c r="AE281" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="282" spans="1:31">
       <c r="A282" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B282">
         <v>0</v>
@@ -27700,10 +28549,13 @@
       <c r="AD282">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:30">
+      <c r="AE282" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="283" spans="1:31">
       <c r="A283" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B283">
         <v>0</v>
@@ -27792,10 +28644,13 @@
       <c r="AD283">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:30">
+      <c r="AE283" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="284" spans="1:31">
       <c r="A284" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B284">
         <v>6042902888</v>
@@ -27884,10 +28739,13 @@
       <c r="AD284">
         <v>1244.601705784302</v>
       </c>
-    </row>
-    <row r="285" spans="1:30">
+      <c r="AE284" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="285" spans="1:31">
       <c r="A285" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B285">
         <v>9130661487</v>
@@ -27976,10 +28834,13 @@
       <c r="AD285">
         <v>2672.250507817247</v>
       </c>
-    </row>
-    <row r="286" spans="1:30">
+      <c r="AE285" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="286" spans="1:31">
       <c r="A286" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B286">
         <v>3499729814</v>
@@ -28068,10 +28929,13 @@
       <c r="AD286">
         <v>2284.049052585837</v>
       </c>
-    </row>
-    <row r="287" spans="1:30">
+      <c r="AE286" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="287" spans="1:31">
       <c r="A287" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B287">
         <v>3256825225</v>
@@ -28160,10 +29024,13 @@
       <c r="AD287">
         <v>2671.395764335435</v>
       </c>
-    </row>
-    <row r="288" spans="1:30">
+      <c r="AE287" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="288" spans="1:31">
       <c r="A288" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B288">
         <v>2580856813</v>
@@ -28252,10 +29119,13 @@
       <c r="AD288">
         <v>2300.943474255721</v>
       </c>
-    </row>
-    <row r="289" spans="1:30">
+      <c r="AE288" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="289" spans="1:31">
       <c r="A289" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B289">
         <v>3437002005</v>
@@ -28344,10 +29214,13 @@
       <c r="AD289">
         <v>2659.508639768427</v>
       </c>
-    </row>
-    <row r="290" spans="1:30">
+      <c r="AE289" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="290" spans="1:31">
       <c r="A290" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B290">
         <v>3304265475</v>
@@ -28436,10 +29309,13 @@
       <c r="AD290">
         <v>2491.546040057394</v>
       </c>
-    </row>
-    <row r="291" spans="1:30">
+      <c r="AE290" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="291" spans="1:31">
       <c r="A291" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B291">
         <v>4091111090</v>
@@ -28528,10 +29404,13 @@
       <c r="AD291">
         <v>2518.721665290298</v>
       </c>
-    </row>
-    <row r="292" spans="1:30">
+      <c r="AE291" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="292" spans="1:31">
       <c r="A292" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B292">
         <v>2557961127</v>
@@ -28620,10 +29499,13 @@
       <c r="AD292">
         <v>2551.792892379204</v>
       </c>
-    </row>
-    <row r="293" spans="1:30">
+      <c r="AE292" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="293" spans="1:31">
       <c r="A293" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B293">
         <v>2059431946</v>
@@ -28712,10 +29594,13 @@
       <c r="AD293">
         <v>2496.225567923941</v>
       </c>
-    </row>
-    <row r="294" spans="1:30">
+      <c r="AE293" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="294" spans="1:31">
       <c r="A294" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B294">
         <v>3221701365</v>
@@ -28804,10 +29689,13 @@
       <c r="AD294">
         <v>2327.487305616448</v>
       </c>
-    </row>
-    <row r="295" spans="1:30">
+      <c r="AE294" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="295" spans="1:31">
       <c r="A295" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B295">
         <v>2534338191</v>
@@ -28896,10 +29784,13 @@
       <c r="AD295">
         <v>1743.495917380189</v>
       </c>
-    </row>
-    <row r="296" spans="1:30">
+      <c r="AE295" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="296" spans="1:31">
       <c r="A296" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B296">
         <v>762096933</v>
@@ -28988,10 +29879,13 @@
       <c r="AD296">
         <v>1159.123698446183</v>
       </c>
-    </row>
-    <row r="297" spans="1:30">
+      <c r="AE296" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="297" spans="1:31">
       <c r="A297" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B297">
         <v>1617376000</v>
@@ -29080,10 +29974,13 @@
       <c r="AD297">
         <v>1374.105605076295</v>
       </c>
-    </row>
-    <row r="298" spans="1:30">
+      <c r="AE297" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="298" spans="1:31">
       <c r="A298" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B298">
         <v>1071497497</v>
@@ -29172,10 +30069,13 @@
       <c r="AD298">
         <v>1344.886585852904</v>
       </c>
-    </row>
-    <row r="299" spans="1:30">
+      <c r="AE298" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="299" spans="1:31">
       <c r="A299" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B299">
         <v>836319748</v>
@@ -29264,10 +30164,13 @@
       <c r="AD299">
         <v>1129.43880796821</v>
       </c>
-    </row>
-    <row r="300" spans="1:30">
+      <c r="AE299" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="300" spans="1:31">
       <c r="A300" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B300">
         <v>1258377191</v>
@@ -29356,10 +30259,13 @@
       <c r="AD300">
         <v>1274.006283481047</v>
       </c>
-    </row>
-    <row r="301" spans="1:30">
+      <c r="AE300" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="301" spans="1:31">
       <c r="A301" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B301">
         <v>2669311778</v>
@@ -29448,10 +30354,13 @@
       <c r="AD301">
         <v>1290.672066048493</v>
       </c>
-    </row>
-    <row r="302" spans="1:30">
+      <c r="AE301" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="302" spans="1:31">
       <c r="A302" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B302">
         <v>2852850131</v>
@@ -29540,10 +30449,13 @@
       <c r="AD302">
         <v>1614.555982767504</v>
       </c>
-    </row>
-    <row r="303" spans="1:30">
+      <c r="AE302" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="303" spans="1:31">
       <c r="A303" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B303">
         <v>1213984101</v>
@@ -29632,10 +30544,13 @@
       <c r="AD303">
         <v>1510.738953474117</v>
       </c>
-    </row>
-    <row r="304" spans="1:30">
+      <c r="AE303" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="304" spans="1:31">
       <c r="A304" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B304">
         <v>1238334811</v>
@@ -29724,10 +30639,13 @@
       <c r="AD304">
         <v>1524.446712074745</v>
       </c>
-    </row>
-    <row r="305" spans="1:30">
+      <c r="AE304" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="305" spans="1:31">
       <c r="A305" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B305">
         <v>2286689387</v>
@@ -29816,10 +30734,13 @@
       <c r="AD305">
         <v>1313.722339982274</v>
       </c>
-    </row>
-    <row r="306" spans="1:30">
+      <c r="AE305" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="306" spans="1:31">
       <c r="A306" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B306">
         <v>1195400254</v>
@@ -29908,10 +30829,13 @@
       <c r="AD306">
         <v>1279.239409847583</v>
       </c>
-    </row>
-    <row r="307" spans="1:30">
+      <c r="AE306" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="307" spans="1:31">
       <c r="A307" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B307">
         <v>1048550191</v>
@@ -30000,10 +30924,13 @@
       <c r="AD307">
         <v>1129.93188521919</v>
       </c>
-    </row>
-    <row r="308" spans="1:30">
+      <c r="AE307" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="308" spans="1:31">
       <c r="A308" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B308">
         <v>726106627</v>
@@ -30092,10 +31019,13 @@
       <c r="AD308">
         <v>904.9465480591145</v>
       </c>
-    </row>
-    <row r="309" spans="1:30">
+      <c r="AE308" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="309" spans="1:31">
       <c r="A309" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B309">
         <v>2024015956</v>
@@ -30184,10 +31114,13 @@
       <c r="AD309">
         <v>1375.551432142929</v>
       </c>
-    </row>
-    <row r="310" spans="1:30">
+      <c r="AE309" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="310" spans="1:31">
       <c r="A310" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B310">
         <v>343612308</v>
@@ -30276,10 +31209,13 @@
       <c r="AD310">
         <v>348.4944442046416</v>
       </c>
-    </row>
-    <row r="311" spans="1:30">
+      <c r="AE310" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="311" spans="1:31">
       <c r="A311" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B311">
         <v>0</v>
@@ -30368,10 +31304,13 @@
       <c r="AD311">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:30">
+      <c r="AE311" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="312" spans="1:31">
       <c r="A312" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B312">
         <v>485437986</v>
@@ -30460,10 +31399,13 @@
       <c r="AD312">
         <v>261.9052114695633</v>
       </c>
-    </row>
-    <row r="313" spans="1:30">
+      <c r="AE312" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="313" spans="1:31">
       <c r="A313" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B313">
         <v>485437986</v>
@@ -30552,10 +31494,13 @@
       <c r="AD313">
         <v>302.7487762490444</v>
       </c>
-    </row>
-    <row r="314" spans="1:30">
+      <c r="AE313" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="314" spans="1:31">
       <c r="A314" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B314">
         <v>485437986</v>
@@ -30644,10 +31589,13 @@
       <c r="AD314">
         <v>282.0802456131655</v>
       </c>
-    </row>
-    <row r="315" spans="1:30">
+      <c r="AE314" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="315" spans="1:31">
       <c r="A315" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B315">
         <v>2524637114</v>
@@ -30736,10 +31684,13 @@
       <c r="AD315">
         <v>2326.568956968832</v>
       </c>
-    </row>
-    <row r="316" spans="1:30">
+      <c r="AE315" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="316" spans="1:31">
       <c r="A316" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B316">
         <v>2167704591</v>
@@ -30828,10 +31779,13 @@
       <c r="AD316">
         <v>1454.031115118035</v>
       </c>
-    </row>
-    <row r="317" spans="1:30">
+      <c r="AE316" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="317" spans="1:31">
       <c r="A317" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B317">
         <v>2569403176</v>
@@ -30920,10 +31874,13 @@
       <c r="AD317">
         <v>2740.516871283642</v>
       </c>
-    </row>
-    <row r="318" spans="1:30">
+      <c r="AE317" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="318" spans="1:31">
       <c r="A318" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B318">
         <v>1107443446</v>
@@ -31012,10 +31969,13 @@
       <c r="AD318">
         <v>1162.586916873725</v>
       </c>
-    </row>
-    <row r="319" spans="1:30">
+      <c r="AE318" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="319" spans="1:31">
       <c r="A319" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B319">
         <v>3423150333</v>
@@ -31104,10 +32064,13 @@
       <c r="AD319">
         <v>2148.387679193653</v>
       </c>
-    </row>
-    <row r="320" spans="1:30">
+      <c r="AE319" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="320" spans="1:31">
       <c r="A320" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B320">
         <v>2165540943</v>
@@ -31196,10 +32159,13 @@
       <c r="AD320">
         <v>1472.545518073144</v>
       </c>
-    </row>
-    <row r="321" spans="1:30">
+      <c r="AE320" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="321" spans="1:31">
       <c r="A321" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B321">
         <v>1942217660</v>
@@ -31288,10 +32254,13 @@
       <c r="AD321">
         <v>1096.007242438052</v>
       </c>
-    </row>
-    <row r="322" spans="1:30">
+      <c r="AE321" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="322" spans="1:31">
       <c r="A322" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B322">
         <v>20074098000</v>
@@ -31380,10 +32349,13 @@
       <c r="AD322">
         <v>6765.013570902588</v>
       </c>
-    </row>
-    <row r="323" spans="1:30">
+      <c r="AE322" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="323" spans="1:31">
       <c r="A323" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B323">
         <v>20074098000</v>
@@ -31472,10 +32444,13 @@
       <c r="AD323">
         <v>6765.013570902588</v>
       </c>
-    </row>
-    <row r="324" spans="1:30">
+      <c r="AE323" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="324" spans="1:31">
       <c r="A324" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B324">
         <v>1615524276</v>
@@ -31564,10 +32539,13 @@
       <c r="AD324">
         <v>1214.756171430038</v>
       </c>
-    </row>
-    <row r="325" spans="1:30">
+      <c r="AE324" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="325" spans="1:31">
       <c r="A325" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B325">
         <v>23321442990</v>
@@ -31656,10 +32634,13 @@
       <c r="AD325">
         <v>3682.231914028639</v>
       </c>
-    </row>
-    <row r="326" spans="1:30">
+      <c r="AE325" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="326" spans="1:31">
       <c r="A326" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B326">
         <v>1160380636</v>
@@ -31748,10 +32729,13 @@
       <c r="AD326">
         <v>1204.329961754398</v>
       </c>
-    </row>
-    <row r="327" spans="1:30">
+      <c r="AE326" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="327" spans="1:31">
       <c r="A327" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B327">
         <v>979792695</v>
@@ -31840,10 +32824,13 @@
       <c r="AD327">
         <v>1199.317413643276</v>
       </c>
-    </row>
-    <row r="328" spans="1:30">
+      <c r="AE327" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="328" spans="1:31">
       <c r="A328" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B328">
         <v>1064461602</v>
@@ -31932,10 +32919,13 @@
       <c r="AD328">
         <v>1032.416626501614</v>
       </c>
-    </row>
-    <row r="329" spans="1:30">
+      <c r="AE328" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="329" spans="1:31">
       <c r="A329" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B329">
         <v>1077634901</v>
@@ -32024,10 +33014,13 @@
       <c r="AD329">
         <v>864.7224740522237</v>
       </c>
-    </row>
-    <row r="330" spans="1:30">
+      <c r="AE329" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="330" spans="1:31">
       <c r="A330" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B330">
         <v>890060475</v>
@@ -32116,10 +33109,13 @@
       <c r="AD330">
         <v>1100.163669741246</v>
       </c>
-    </row>
-    <row r="331" spans="1:30">
+      <c r="AE330" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="331" spans="1:31">
       <c r="A331" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B331">
         <v>828516910</v>
@@ -32208,10 +33204,13 @@
       <c r="AD331">
         <v>912.0488314472499</v>
       </c>
-    </row>
-    <row r="332" spans="1:30">
+      <c r="AE331" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="332" spans="1:31">
       <c r="A332" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B332">
         <v>4120217502</v>
@@ -32300,10 +33299,13 @@
       <c r="AD332">
         <v>1552.758252930388</v>
       </c>
-    </row>
-    <row r="333" spans="1:30">
+      <c r="AE332" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="333" spans="1:31">
       <c r="A333" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B333">
         <v>797922007</v>
@@ -32392,10 +33394,13 @@
       <c r="AD333">
         <v>749.0908967874474</v>
       </c>
-    </row>
-    <row r="334" spans="1:30">
+      <c r="AE333" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="334" spans="1:31">
       <c r="A334" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B334">
         <v>737768295</v>
@@ -32484,10 +33489,13 @@
       <c r="AD334">
         <v>788.6047286622248</v>
       </c>
-    </row>
-    <row r="335" spans="1:30">
+      <c r="AE334" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="335" spans="1:31">
       <c r="A335" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B335">
         <v>393663828</v>
@@ -32576,10 +33584,13 @@
       <c r="AD335">
         <v>633.1381673111995</v>
       </c>
-    </row>
-    <row r="336" spans="1:30">
+      <c r="AE335" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="336" spans="1:31">
       <c r="A336" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B336">
         <v>485407039</v>
@@ -32668,10 +33679,13 @@
       <c r="AD336">
         <v>1140.753750221488</v>
       </c>
-    </row>
-    <row r="337" spans="1:30">
+      <c r="AE336" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="337" spans="1:31">
       <c r="A337" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B337">
         <v>3916294140</v>
@@ -32760,10 +33774,13 @@
       <c r="AD337">
         <v>1670.234257791548</v>
       </c>
-    </row>
-    <row r="338" spans="1:30">
+      <c r="AE337" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="338" spans="1:31">
       <c r="A338" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B338">
         <v>0</v>
@@ -32852,10 +33869,13 @@
       <c r="AD338">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:30">
+      <c r="AE338" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="339" spans="1:31">
       <c r="A339" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B339">
         <v>0</v>
@@ -32944,10 +33964,13 @@
       <c r="AD339">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:30">
+      <c r="AE339" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="340" spans="1:31">
       <c r="A340" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B340">
         <v>2860551414</v>
@@ -33036,10 +34059,13 @@
       <c r="AD340">
         <v>1740.739711694072</v>
       </c>
-    </row>
-    <row r="341" spans="1:30">
+      <c r="AE340" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="341" spans="1:31">
       <c r="A341" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B341">
         <v>1705827904</v>
@@ -33128,10 +34154,13 @@
       <c r="AD341">
         <v>1416.92367885776</v>
       </c>
-    </row>
-    <row r="342" spans="1:30">
+      <c r="AE341" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="342" spans="1:31">
       <c r="A342" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B342">
         <v>1545637980</v>
@@ -33220,10 +34249,13 @@
       <c r="AD342">
         <v>948.4499478689165</v>
       </c>
-    </row>
-    <row r="343" spans="1:30">
+      <c r="AE342" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="343" spans="1:31">
       <c r="A343" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B343">
         <v>1274465306</v>
@@ -33312,10 +34344,13 @@
       <c r="AD343">
         <v>970.2041296200183</v>
       </c>
-    </row>
-    <row r="344" spans="1:30">
+      <c r="AE343" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="344" spans="1:31">
       <c r="A344" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B344">
         <v>1462403171</v>
@@ -33404,10 +34439,13 @@
       <c r="AD344">
         <v>1270.163806691565</v>
       </c>
-    </row>
-    <row r="345" spans="1:30">
+      <c r="AE344" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="345" spans="1:31">
       <c r="A345" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B345">
         <v>3858712133</v>
@@ -33496,10 +34534,13 @@
       <c r="AD345">
         <v>1569.580577579017</v>
       </c>
-    </row>
-    <row r="346" spans="1:30">
+      <c r="AE345" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="346" spans="1:31">
       <c r="A346" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B346">
         <v>1448372606</v>
@@ -33588,10 +34629,13 @@
       <c r="AD346">
         <v>1690.323214090731</v>
       </c>
-    </row>
-    <row r="347" spans="1:30">
+      <c r="AE346" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="347" spans="1:31">
       <c r="A347" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B347">
         <v>308860834</v>
@@ -33680,10 +34724,13 @@
       <c r="AD347">
         <v>516.6524194883068</v>
       </c>
-    </row>
-    <row r="348" spans="1:30">
+      <c r="AE347" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="348" spans="1:31">
       <c r="A348" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B348">
         <v>1016260208</v>
@@ -33772,10 +34819,13 @@
       <c r="AD348">
         <v>861.8628917332696</v>
       </c>
-    </row>
-    <row r="349" spans="1:30">
+      <c r="AE348" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="349" spans="1:31">
       <c r="A349" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B349">
         <v>1565321367</v>
@@ -33864,10 +34914,13 @@
       <c r="AD349">
         <v>973.9728435228761</v>
       </c>
-    </row>
-    <row r="350" spans="1:30">
+      <c r="AE349" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="350" spans="1:31">
       <c r="A350" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B350">
         <v>877780440</v>
@@ -33956,10 +35009,13 @@
       <c r="AD350">
         <v>896.3712507348454</v>
       </c>
-    </row>
-    <row r="351" spans="1:30">
+      <c r="AE350" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="351" spans="1:31">
       <c r="A351" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B351">
         <v>1076454238</v>
@@ -34048,10 +35104,13 @@
       <c r="AD351">
         <v>948.076506296882</v>
       </c>
-    </row>
-    <row r="352" spans="1:30">
+      <c r="AE351" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="352" spans="1:31">
       <c r="A352" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B352">
         <v>2354884856</v>
@@ -34140,10 +35199,13 @@
       <c r="AD352">
         <v>2112.9670105787</v>
       </c>
-    </row>
-    <row r="353" spans="1:30">
+      <c r="AE352" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="353" spans="1:31">
       <c r="A353" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B353">
         <v>1422350808</v>
@@ -34232,10 +35294,13 @@
       <c r="AD353">
         <v>1063.355713875276</v>
       </c>
-    </row>
-    <row r="354" spans="1:30">
+      <c r="AE353" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="354" spans="1:31">
       <c r="A354" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B354">
         <v>2226227095</v>
@@ -34324,10 +35389,13 @@
       <c r="AD354">
         <v>1424.751269453117</v>
       </c>
-    </row>
-    <row r="355" spans="1:30">
+      <c r="AE354" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="355" spans="1:31">
       <c r="A355" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B355">
         <v>2360545083</v>
@@ -34416,10 +35484,13 @@
       <c r="AD355">
         <v>1444.562940072811</v>
       </c>
-    </row>
-    <row r="356" spans="1:30">
+      <c r="AE355" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="356" spans="1:31">
       <c r="A356" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B356">
         <v>1914025115</v>
@@ -34508,10 +35579,13 @@
       <c r="AD356">
         <v>1476.879117917515</v>
       </c>
-    </row>
-    <row r="357" spans="1:30">
+      <c r="AE356" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="357" spans="1:31">
       <c r="A357" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B357">
         <v>537482737</v>
@@ -34600,10 +35674,13 @@
       <c r="AD357">
         <v>707.4260647866643</v>
       </c>
-    </row>
-    <row r="358" spans="1:30">
+      <c r="AE357" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="358" spans="1:31">
       <c r="A358" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B358">
         <v>12148785516</v>
@@ -34692,10 +35769,13 @@
       <c r="AD358">
         <v>1016.046193647484</v>
       </c>
-    </row>
-    <row r="359" spans="1:30">
+      <c r="AE358" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="359" spans="1:31">
       <c r="A359" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B359">
         <v>1093060665</v>
@@ -34784,10 +35864,13 @@
       <c r="AD359">
         <v>437.673225470713</v>
       </c>
-    </row>
-    <row r="360" spans="1:30">
+      <c r="AE359" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="360" spans="1:31">
       <c r="A360" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B360">
         <v>2540068629</v>
@@ -34876,10 +35959,13 @@
       <c r="AD360">
         <v>500.2932786485752</v>
       </c>
-    </row>
-    <row r="361" spans="1:30">
+      <c r="AE360" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="361" spans="1:31">
       <c r="A361" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B361">
         <v>1351464733</v>
@@ -34968,10 +36054,13 @@
       <c r="AD361">
         <v>487.4931027295538</v>
       </c>
-    </row>
-    <row r="362" spans="1:30">
+      <c r="AE361" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="362" spans="1:31">
       <c r="A362" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B362">
         <v>2842869376</v>
@@ -35060,10 +36149,13 @@
       <c r="AD362">
         <v>525.5665912669803</v>
       </c>
-    </row>
-    <row r="363" spans="1:30">
+      <c r="AE362" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="363" spans="1:31">
       <c r="A363" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B363">
         <v>12578330173</v>
@@ -35152,10 +36244,13 @@
       <c r="AD363">
         <v>1047.229732829568</v>
       </c>
-    </row>
-    <row r="364" spans="1:30">
+      <c r="AE363" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="364" spans="1:31">
       <c r="A364" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B364">
         <v>12260685801</v>
@@ -35244,10 +36339,13 @@
       <c r="AD364">
         <v>1010.806464444646</v>
       </c>
-    </row>
-    <row r="365" spans="1:30">
+      <c r="AE364" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="365" spans="1:31">
       <c r="A365" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B365">
         <v>12938651601</v>
@@ -35336,10 +36434,13 @@
       <c r="AD365">
         <v>1030.301501633156</v>
       </c>
-    </row>
-    <row r="366" spans="1:30">
+      <c r="AE365" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="366" spans="1:31">
       <c r="A366" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B366">
         <v>4536542871</v>
@@ -35428,10 +36529,13 @@
       <c r="AD366">
         <v>991.7979448181824</v>
       </c>
-    </row>
-    <row r="367" spans="1:30">
+      <c r="AE366" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="367" spans="1:31">
       <c r="A367" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B367">
         <v>735379828</v>
@@ -35520,10 +36624,13 @@
       <c r="AD367">
         <v>783.0026470740952</v>
       </c>
-    </row>
-    <row r="368" spans="1:30">
+      <c r="AE367" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="368" spans="1:31">
       <c r="A368" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B368">
         <v>1488444460</v>
@@ -35612,10 +36719,13 @@
       <c r="AD368">
         <v>515.4153324986852</v>
       </c>
-    </row>
-    <row r="369" spans="1:30">
+      <c r="AE368" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="369" spans="1:31">
       <c r="A369" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B369">
         <v>1411657040</v>
@@ -35704,10 +36814,13 @@
       <c r="AD369">
         <v>577.3473953675056</v>
       </c>
-    </row>
-    <row r="370" spans="1:30">
+      <c r="AE369" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="370" spans="1:31">
       <c r="A370" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B370">
         <v>1351226257</v>
@@ -35796,10 +36909,13 @@
       <c r="AD370">
         <v>905.5125921110447</v>
       </c>
-    </row>
-    <row r="371" spans="1:30">
+      <c r="AE370" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="371" spans="1:31">
       <c r="A371" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B371">
         <v>965016520</v>
@@ -35888,10 +37004,13 @@
       <c r="AD371">
         <v>776.7944581607355</v>
       </c>
-    </row>
-    <row r="372" spans="1:30">
+      <c r="AE371" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="372" spans="1:31">
       <c r="A372" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B372">
         <v>729907515</v>
@@ -35980,10 +37099,13 @@
       <c r="AD372">
         <v>547.7140512097776</v>
       </c>
-    </row>
-    <row r="373" spans="1:30">
+      <c r="AE372" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="373" spans="1:31">
       <c r="A373" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B373">
         <v>4460714914</v>
@@ -36072,10 +37194,13 @@
       <c r="AD373">
         <v>958.498240041344</v>
       </c>
-    </row>
-    <row r="374" spans="1:30">
+      <c r="AE373" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="374" spans="1:31">
       <c r="A374" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B374">
         <v>11088384471</v>
@@ -36164,10 +37289,13 @@
       <c r="AD374">
         <v>1017.11816524132</v>
       </c>
-    </row>
-    <row r="375" spans="1:30">
+      <c r="AE374" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="375" spans="1:31">
       <c r="A375" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B375">
         <v>393177310</v>
@@ -36256,10 +37384,13 @@
       <c r="AD375">
         <v>627.5875862989541</v>
       </c>
-    </row>
-    <row r="376" spans="1:30">
+      <c r="AE375" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="376" spans="1:31">
       <c r="A376" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B376">
         <v>3459561416</v>
@@ -36348,10 +37479,13 @@
       <c r="AD376">
         <v>818.786602147391</v>
       </c>
-    </row>
-    <row r="377" spans="1:30">
+      <c r="AE376" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="377" spans="1:31">
       <c r="A377" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B377">
         <v>6960577017</v>
@@ -36440,10 +37574,13 @@
       <c r="AD377">
         <v>894.0292974284614</v>
       </c>
-    </row>
-    <row r="378" spans="1:30">
+      <c r="AE377" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="378" spans="1:31">
       <c r="A378" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B378">
         <v>12979754251</v>
@@ -36532,10 +37669,13 @@
       <c r="AD378">
         <v>1030.027631466956</v>
       </c>
-    </row>
-    <row r="379" spans="1:30">
+      <c r="AE378" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="379" spans="1:31">
       <c r="A379" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B379">
         <v>4438365135</v>
@@ -36624,10 +37764,13 @@
       <c r="AD379">
         <v>782.0339236396734</v>
       </c>
-    </row>
-    <row r="380" spans="1:30">
+      <c r="AE379" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="380" spans="1:31">
       <c r="A380" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B380">
         <v>2574273000</v>
@@ -36716,10 +37859,13 @@
       <c r="AD380">
         <v>502.764978032015</v>
       </c>
-    </row>
-    <row r="381" spans="1:30">
+      <c r="AE380" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="381" spans="1:31">
       <c r="A381" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B381">
         <v>1609335218</v>
@@ -36808,10 +37954,13 @@
       <c r="AD381">
         <v>540.0324460929104</v>
       </c>
-    </row>
-    <row r="382" spans="1:30">
+      <c r="AE381" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="382" spans="1:31">
       <c r="A382" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B382">
         <v>2381117537</v>
@@ -36900,10 +38049,13 @@
       <c r="AD382">
         <v>514.1292689961616</v>
       </c>
-    </row>
-    <row r="383" spans="1:30">
+      <c r="AE382" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="383" spans="1:31">
       <c r="A383" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B383">
         <v>817236746</v>
@@ -36992,10 +38144,13 @@
       <c r="AD383">
         <v>936.5577993087012</v>
       </c>
-    </row>
-    <row r="384" spans="1:30">
+      <c r="AE383" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="384" spans="1:31">
       <c r="A384" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B384">
         <v>3852465051</v>
@@ -37084,10 +38239,13 @@
       <c r="AD384">
         <v>823.9334141602981</v>
       </c>
-    </row>
-    <row r="385" spans="1:30">
+      <c r="AE384" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="385" spans="1:31">
       <c r="A385" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B385">
         <v>11088384471</v>
@@ -37176,10 +38334,13 @@
       <c r="AD385">
         <v>1017.11816524132</v>
       </c>
-    </row>
-    <row r="386" spans="1:30">
+      <c r="AE385" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="386" spans="1:31">
       <c r="A386" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B386">
         <v>2574273000</v>
@@ -37268,10 +38429,13 @@
       <c r="AD386">
         <v>502.764978032015</v>
       </c>
-    </row>
-    <row r="387" spans="1:30">
+      <c r="AE386" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="387" spans="1:31">
       <c r="A387" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B387">
         <v>1924511487</v>
@@ -37360,10 +38524,13 @@
       <c r="AD387">
         <v>887.1462134822084</v>
       </c>
-    </row>
-    <row r="388" spans="1:30">
+      <c r="AE387" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="388" spans="1:31">
       <c r="A388" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B388">
         <v>3375523190</v>
@@ -37452,10 +38619,13 @@
       <c r="AD388">
         <v>482.9777360465286</v>
       </c>
-    </row>
-    <row r="389" spans="1:30">
+      <c r="AE388" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="389" spans="1:31">
       <c r="A389" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B389">
         <v>2574273000</v>
@@ -37544,10 +38714,13 @@
       <c r="AD389">
         <v>502.764978032015</v>
       </c>
-    </row>
-    <row r="390" spans="1:30">
+      <c r="AE389" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="390" spans="1:31">
       <c r="A390" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B390">
         <v>1216273336</v>
@@ -37636,10 +38809,13 @@
       <c r="AD390">
         <v>711.0359322624373</v>
       </c>
-    </row>
-    <row r="391" spans="1:30">
+      <c r="AE390" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="391" spans="1:31">
       <c r="A391" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B391">
         <v>6781838152</v>
@@ -37728,10 +38904,13 @@
       <c r="AD391">
         <v>880.3288968171668</v>
       </c>
-    </row>
-    <row r="392" spans="1:30">
+      <c r="AE391" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="392" spans="1:31">
       <c r="A392" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B392">
         <v>11643091429</v>
@@ -37820,10 +38999,13 @@
       <c r="AD392">
         <v>1008.824711792632</v>
       </c>
-    </row>
-    <row r="393" spans="1:30">
+      <c r="AE392" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="393" spans="1:31">
       <c r="A393" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B393">
         <v>4012433275</v>
@@ -37912,10 +39094,13 @@
       <c r="AD393">
         <v>1010.800542749414</v>
       </c>
-    </row>
-    <row r="394" spans="1:30">
+      <c r="AE393" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="394" spans="1:31">
       <c r="A394" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B394">
         <v>11088384471</v>
@@ -38004,10 +39189,13 @@
       <c r="AD394">
         <v>1017.11816524132</v>
       </c>
-    </row>
-    <row r="395" spans="1:30">
+      <c r="AE394" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="395" spans="1:31">
       <c r="A395" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B395">
         <v>1437058266</v>
@@ -38096,10 +39284,13 @@
       <c r="AD395">
         <v>1158.49731941652</v>
       </c>
-    </row>
-    <row r="396" spans="1:30">
+      <c r="AE395" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="396" spans="1:31">
       <c r="A396" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B396">
         <v>1203090031</v>
@@ -38188,10 +39379,13 @@
       <c r="AD396">
         <v>1172.94469032515</v>
       </c>
-    </row>
-    <row r="397" spans="1:30">
+      <c r="AE396" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="397" spans="1:31">
       <c r="A397" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B397">
         <v>1513045773</v>
@@ -38280,10 +39474,13 @@
       <c r="AD397">
         <v>1245.523606615777</v>
       </c>
-    </row>
-    <row r="398" spans="1:30">
+      <c r="AE397" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="398" spans="1:31">
       <c r="A398" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B398">
         <v>1165433349</v>
@@ -38372,10 +39569,13 @@
       <c r="AD398">
         <v>1070.445101204823</v>
       </c>
-    </row>
-    <row r="399" spans="1:30">
+      <c r="AE398" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="399" spans="1:31">
       <c r="A399" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B399">
         <v>4257066723</v>
@@ -38464,10 +39664,13 @@
       <c r="AD399">
         <v>3078.829415503862</v>
       </c>
-    </row>
-    <row r="400" spans="1:30">
+      <c r="AE399" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="400" spans="1:31">
       <c r="A400" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B400">
         <v>3624985058</v>
@@ -38556,10 +39759,13 @@
       <c r="AD400">
         <v>3555.17732592969</v>
       </c>
-    </row>
-    <row r="401" spans="1:30">
+      <c r="AE400" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="401" spans="1:31">
       <c r="A401" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B401">
         <v>3425309456</v>
@@ -38648,10 +39854,13 @@
       <c r="AD401">
         <v>2479.923659560794</v>
       </c>
-    </row>
-    <row r="402" spans="1:30">
+      <c r="AE401" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="402" spans="1:31">
       <c r="A402" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B402">
         <v>3672871581</v>
@@ -38740,10 +39949,13 @@
       <c r="AD402">
         <v>2831.114443637579</v>
       </c>
-    </row>
-    <row r="403" spans="1:30">
+      <c r="AE402" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="403" spans="1:31">
       <c r="A403" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B403">
         <v>1913036321</v>
@@ -38832,10 +40044,13 @@
       <c r="AD403">
         <v>2255.129836290392</v>
       </c>
-    </row>
-    <row r="404" spans="1:30">
+      <c r="AE403" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="404" spans="1:31">
       <c r="A404" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B404">
         <v>1672331129</v>
@@ -38924,10 +40139,13 @@
       <c r="AD404">
         <v>1673.072814868222</v>
       </c>
-    </row>
-    <row r="405" spans="1:30">
+      <c r="AE404" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="405" spans="1:31">
       <c r="A405" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B405">
         <v>4456373103</v>
@@ -39016,10 +40234,13 @@
       <c r="AD405">
         <v>3384.581216271973</v>
       </c>
-    </row>
-    <row r="406" spans="1:30">
+      <c r="AE405" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="406" spans="1:31">
       <c r="A406" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B406">
         <v>10603375082</v>
@@ -39108,10 +40329,13 @@
       <c r="AD406">
         <v>5098.047551813994</v>
       </c>
-    </row>
-    <row r="407" spans="1:30">
+      <c r="AE406" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="407" spans="1:31">
       <c r="A407" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B407">
         <v>1533354959</v>
@@ -39200,10 +40424,13 @@
       <c r="AD407">
         <v>1689.430495138113</v>
       </c>
-    </row>
-    <row r="408" spans="1:30">
+      <c r="AE407" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="408" spans="1:31">
       <c r="A408" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B408">
         <v>13761636034</v>
@@ -39292,10 +40519,13 @@
       <c r="AD408">
         <v>4980.913957875506</v>
       </c>
-    </row>
-    <row r="409" spans="1:30">
+      <c r="AE408" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="409" spans="1:31">
       <c r="A409" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B409">
         <v>16420403374</v>
@@ -39384,10 +40614,13 @@
       <c r="AD409">
         <v>5322.388612400837</v>
       </c>
-    </row>
-    <row r="410" spans="1:30">
+      <c r="AE409" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="410" spans="1:31">
       <c r="A410" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B410">
         <v>0</v>
@@ -39476,10 +40709,13 @@
       <c r="AD410">
         <v>0</v>
       </c>
-    </row>
-    <row r="411" spans="1:30">
+      <c r="AE410" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="411" spans="1:31">
       <c r="A411" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B411">
         <v>8189277394</v>
@@ -39568,10 +40804,13 @@
       <c r="AD411">
         <v>2079.442853112105</v>
       </c>
-    </row>
-    <row r="412" spans="1:30">
+      <c r="AE411" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="412" spans="1:31">
       <c r="A412" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B412">
         <v>1012543195</v>
@@ -39660,10 +40899,13 @@
       <c r="AD412">
         <v>1342.453888114351</v>
       </c>
-    </row>
-    <row r="413" spans="1:30">
+      <c r="AE412" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="413" spans="1:31">
       <c r="A413" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B413">
         <v>691294236</v>
@@ -39752,10 +40994,13 @@
       <c r="AD413">
         <v>1222.205809965901</v>
       </c>
-    </row>
-    <row r="414" spans="1:30">
+      <c r="AE413" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="414" spans="1:31">
       <c r="A414" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B414">
         <v>405115368</v>
@@ -39844,10 +41089,13 @@
       <c r="AD414">
         <v>869.5619877614899</v>
       </c>
-    </row>
-    <row r="415" spans="1:30">
+      <c r="AE414" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="415" spans="1:31">
       <c r="A415" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B415">
         <v>648815525</v>
@@ -39936,10 +41184,13 @@
       <c r="AD415">
         <v>1139.52882843493</v>
       </c>
-    </row>
-    <row r="416" spans="1:30">
+      <c r="AE415" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="416" spans="1:31">
       <c r="A416" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B416">
         <v>1160725665</v>
@@ -40028,10 +41279,13 @@
       <c r="AD416">
         <v>1261.530042430959</v>
       </c>
-    </row>
-    <row r="417" spans="1:30">
+      <c r="AE416" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="417" spans="1:31">
       <c r="A417" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B417">
         <v>7472904000</v>
@@ -40120,10 +41374,13 @@
       <c r="AD417">
         <v>2370.978209578762</v>
       </c>
-    </row>
-    <row r="418" spans="1:30">
+      <c r="AE417" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="418" spans="1:31">
       <c r="A418" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B418">
         <v>9039138257</v>
@@ -40212,10 +41469,13 @@
       <c r="AD418">
         <v>1829.512587010897</v>
       </c>
-    </row>
-    <row r="419" spans="1:30">
+      <c r="AE418" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="419" spans="1:31">
       <c r="A419" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B419">
         <v>7472904000</v>
@@ -40304,10 +41564,13 @@
       <c r="AD419">
         <v>2370.978209578762</v>
       </c>
-    </row>
-    <row r="420" spans="1:30">
+      <c r="AE419" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="420" spans="1:31">
       <c r="A420" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B420">
         <v>1069490964</v>
@@ -40396,10 +41659,13 @@
       <c r="AD420">
         <v>1153.182551849031</v>
       </c>
-    </row>
-    <row r="421" spans="1:30">
+      <c r="AE420" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="421" spans="1:31">
       <c r="A421" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B421">
         <v>3374407327</v>
@@ -40488,10 +41754,13 @@
       <c r="AD421">
         <v>1416.791064369776</v>
       </c>
-    </row>
-    <row r="422" spans="1:30">
+      <c r="AE421" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="422" spans="1:31">
       <c r="A422" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B422">
         <v>1607452392</v>
@@ -40580,10 +41849,13 @@
       <c r="AD422">
         <v>1474.505125589022</v>
       </c>
-    </row>
-    <row r="423" spans="1:30">
+      <c r="AE422" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="423" spans="1:31">
       <c r="A423" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B423">
         <v>1038465400</v>
@@ -40672,10 +41944,13 @@
       <c r="AD423">
         <v>1510.587515519982</v>
       </c>
-    </row>
-    <row r="424" spans="1:30">
+      <c r="AE423" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="424" spans="1:31">
       <c r="A424" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B424">
         <v>2511865000</v>
@@ -40764,10 +42039,13 @@
       <c r="AD424">
         <v>1442.163076972203</v>
       </c>
-    </row>
-    <row r="425" spans="1:30">
+      <c r="AE424" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="425" spans="1:31">
       <c r="A425" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B425">
         <v>3000425259</v>
@@ -40856,10 +42134,13 @@
       <c r="AD425">
         <v>1240.785983196117</v>
       </c>
-    </row>
-    <row r="426" spans="1:30">
+      <c r="AE425" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="426" spans="1:31">
       <c r="A426" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B426">
         <v>770773437</v>
@@ -40948,10 +42229,13 @@
       <c r="AD426">
         <v>1369.277364249889</v>
       </c>
-    </row>
-    <row r="427" spans="1:30">
+      <c r="AE426" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="427" spans="1:31">
       <c r="A427" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B427">
         <v>1115272984</v>
@@ -41040,10 +42324,13 @@
       <c r="AD427">
         <v>1615.860381207156</v>
       </c>
-    </row>
-    <row r="428" spans="1:30">
+      <c r="AE427" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="428" spans="1:31">
       <c r="A428" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B428">
         <v>837114762</v>
@@ -41132,10 +42419,13 @@
       <c r="AD428">
         <v>1522.848133812855</v>
       </c>
-    </row>
-    <row r="429" spans="1:30">
+      <c r="AE428" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="429" spans="1:31">
       <c r="A429" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B429">
         <v>92271198</v>
@@ -41224,10 +42514,13 @@
       <c r="AD429">
         <v>321.6987838295105</v>
       </c>
-    </row>
-    <row r="430" spans="1:30">
+      <c r="AE429" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="430" spans="1:31">
       <c r="A430" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B430">
         <v>256861908</v>
@@ -41316,10 +42609,13 @@
       <c r="AD430">
         <v>308.5727502579248</v>
       </c>
-    </row>
-    <row r="431" spans="1:30">
+      <c r="AE430" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="431" spans="1:31">
       <c r="A431" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B431">
         <v>631618639</v>
@@ -41407,6 +42703,9 @@
       </c>
       <c r="AD431">
         <v>1573.395506876293</v>
+      </c>
+      <c r="AE431" t="s">
+        <v>461</v>
       </c>
     </row>
   </sheetData>

--- a/backend/data/atlas/processed/gov_spending/gov_congress.xlsx
+++ b/backend/data/atlas/processed/gov_spending/gov_congress.xlsx
@@ -1406,16 +1406,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1431,7 +1423,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1439,30 +1431,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1764,97 +1738,97 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:31">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" t="s">
         <v>30</v>
       </c>
     </row>
